--- a/table-1.xlsx
+++ b/table-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaama\Documents\in_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaama\Documents\visafree_in-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB2C9C-1545-45B1-99A9-8A28E959A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BFF10-B9C2-4EE6-9165-8A164E16F154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="602">
   <si>
     <t>Country</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>Visa required[30]</t>
-  </si>
-  <si>
     <t>Visa free for a maximum stay of 90 days within 180 days for valid visa holders or residents of the Schengen Area member states, the UK and US, subject to visa being used at least once before</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Visa required[81]</t>
-  </si>
-  <si>
     <t>Under the 24-hour TWOV policy, transit visa is not required for travelers who: hold a passport valid for at least 3 months from the date of entry; arrive by air, cruise ship or train (except for arriving at certain airports listed below); hold confirmed air, cruise ship or train tickets to a third-country final destination. depart Mainland China on a flight, cruise ship or train within 24 hours after arrival. The 24-hour transit rule allows multiple stops within Mainland China for most airports, as long as the traveler has a flight, cruise or train segment leaving Mainland China in 24 hours, so it is possible to enter through a port of entry in China, take multiple segments of domestic flights within China, and depart from a different port of entry in less than 24 hours. Multi-stop transit is not allowed in some airports listed below. Fuzhou Changle International Airport, Huangshan Tunxi International Airport, Mudanjiang Hailang Airport, Shenzhen Bao'an International Airport, Yanji Chaoyangchuan Airport  Urumqi Diwopu International Airport: Passengers in transit are permitted to remain in the airport for a maximum period of 2 hours. Multi-stop transit is not permitted. The airport also maintains an individual list of nationalities not eligible for visa-free transit.</t>
   </si>
   <si>
@@ -725,12 +719,6 @@
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Visa required[144]</t>
-  </si>
-  <si>
-    <t>Visa not required if transiting with Air Astana (KC) at Almaty (ALA) or Astana (TSE) for a maximum stay of 72 hours with a stamped visa of the final country (until 31 December 2020).[145][146] Holders of invitation issued by the Migration Service of Kazakhstan can apply for a visa online since January 2019.</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -755,9 +743,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>Visa required[151]</t>
-  </si>
-  <si>
     <t>Visa free transit (up to 30 days) provided holding a valid US, Canada, Australia, New Zealand Visa, and arriving from or departing to those countries.[152]</t>
   </si>
   <si>
@@ -1202,9 +1187,6 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>eVisa[240]</t>
-  </si>
-  <si>
     <t>May obtain online eVisa through eligible authorized travel agencies or through local sponsors (Singapore citizen or permanent residents).[241] Indian nationals with valid visa from countries such as UK, US, Canada, Japan, Australia, New Zealand, Germany and Switzerland who are in transit to or from any third country by air may be conditionally eligible for 96-hours Visa Free Transit Facility (VFTF).[242][243]</t>
   </si>
   <si>
@@ -1728,9 +1710,6 @@
   </si>
   <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Visa required[306][307]</t>
   </si>
   <si>
     <t>30 day online travel authority is available to the citizens of India with permanent residency or valid visa or expired, of Australia, Canada, Japan, New Zealand, Schengen Convention countries, United Kingdom or United States. But it must not have expired for more than 10 years prior to the date of arrival in Taiwan as well as visas marked "void", "canceled" or "canceled without prejudice" are not eligible.</t>
@@ -1788,10 +1767,6 @@
     <t>Can be applied online via evisa.mfa.gov.ua</t>
   </si>
   <si>
-    <t>Obtainable online[252]
-Obtainable online. Printed visa authorization must be presented at the time of travel</t>
-  </si>
-  <si>
     <t>https://www.israelvisa.in/</t>
   </si>
   <si>
@@ -1837,9 +1812,6 @@
     <t>South Georgia and South Sandwich Islands</t>
   </si>
   <si>
-    <t>Available: https://www.visa2egypt.gov.eg/ . Passengers with a residence permit issued by a GCC Member State can obtain a visa on arrival for a maximum stay of 30 days. The residence permit must be valid for a minimum of 6 months from the arrival date.[101] If travelling as a part of an organized tourist group that consists of at least 10 persons and holding both onward and return flight tickets, booked accommodation and a signed Letter of Guarantee (LG) from an Egyptian travel agency, a visa on arrival in Egypt can be obtained[102] Air transit passengers with a confirmed onward ticket for a flight to a third country within 48 hours do not need visas; however, this exemption does not apply when transiting through Alexandria (HBE)</t>
-  </si>
-  <si>
     <t>In general, cruise ship visitors do not require a visa to enter the Falklands or to participate in shore excursions.</t>
   </si>
   <si>
@@ -1847,6 +1819,28 @@
   </si>
   <si>
     <t>Indian Government has banned citizens from visitng Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-visa can be issued only if there is a valid invitation from the Kazakh side. To apply for an e-visa, you need an invitation number received from the inviting Kazakh side. The issued electronic visa must be printed out for presentation at the state border crossing and on the territory of the Republic of Kazakhstan. Electronic visa gives the right to enter / exit the Republic of Kazakhstan only through the international airports of Nur-Sultan and Almaty.
+E-visas are not issued to foreigners with whom children travel together. https://www.vmp.gov.kz/en/services/visa-service Suspended:Visa not required if transiting with Air Astana (KC) at Almaty (ALA) or Astana (TSE) for a maximum stay of 72 hours with a stamped visa of the final country</t>
+  </si>
+  <si>
+    <t>Visa required, Online Submission with Invitation Letter</t>
+  </si>
+  <si>
+    <t>eVisa, Stop-over Facility</t>
+  </si>
+  <si>
+    <t>Visa required, Stop-over Facility</t>
+  </si>
+  <si>
+    <t>Obtainable online. Printed visa authorization must be presented at the time of travel. Police Certificate May be Required.</t>
+  </si>
+  <si>
+    <t>Available: https://www.visa2egypt.gov.eg/ Passengers with a residence permit issued by a GCC Member State can obtain a visa on arrival for a maximum stay of 30 days. The residence permit must be valid for a minimum of 6 months from the arrival date.[101] If travelling as a part of an organized tourist group that consists of at least 10 persons and holding both onward and return flight tickets, booked accommodation and a signed Letter of Guarantee (LG) from an Egyptian travel agency, a visa on arrival in Egypt can be obtained[102] Air transit passengers with a confirmed onward ticket for a flight to a third country within 48 hours do not need visas; however, this exemption does not apply when transiting through Alexandria (HBE)</t>
+  </si>
+  <si>
+    <t>Visa Not Required till 31 December 2022. https://e-visa.al/apply</t>
   </si>
 </sst>
 </file>
@@ -2776,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="F233" sqref="F233"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,16 +2797,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2847,13 +2841,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>41.153331999999999</v>
@@ -2866,18 +2860,18 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">100-B3</f>
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>28.033885999999999</v>
@@ -2886,7 +2880,7 @@
         <v>1.659626</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -2895,13 +2889,13 @@
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F5" s="2">
         <v>-14.270972</v>
@@ -2910,7 +2904,7 @@
         <v>-170.132217</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -2919,16 +2913,16 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>42.546244999999999</v>
@@ -2937,7 +2931,7 @@
         <v>1.6015539999999999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -2946,19 +2940,19 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>67</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>-11.202692000000001</v>
@@ -2967,7 +2961,7 @@
         <v>17.873887</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -2976,16 +2970,16 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F8" s="2">
         <v>18.220554</v>
@@ -2994,7 +2988,7 @@
         <v>-63.068615000000001</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -3003,16 +2997,16 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
       </c>
       <c r="F9" s="2">
         <v>17.060815999999999</v>
@@ -3021,7 +3015,7 @@
         <v>-61.796427999999999</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -3030,16 +3024,16 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>67</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>-38.416097000000001</v>
@@ -3048,7 +3042,7 @@
         <v>-63.616672000000001</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -3057,19 +3051,19 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>67</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="2">
         <v>40.069099000000001</v>
@@ -3078,7 +3072,7 @@
         <v>45.038189000000003</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -3087,16 +3081,16 @@
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F12" s="2">
         <v>12.52111</v>
@@ -3105,7 +3099,7 @@
         <v>-69.968338000000003</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -3114,16 +3108,16 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B13">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F13" s="2">
         <v>-7.9466999999999999</v>
@@ -3139,16 +3133,16 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E14" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F14" s="2">
         <v>-25.274398000000001</v>
@@ -3157,7 +3151,7 @@
         <v>133.775136</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -3166,16 +3160,16 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>47.516230999999998</v>
@@ -3184,7 +3178,7 @@
         <v>14.550072</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -3193,19 +3187,19 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>67</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
       </c>
       <c r="F16" s="2">
         <v>40.143104999999998</v>
@@ -3214,7 +3208,7 @@
         <v>47.576926999999998</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -3223,16 +3217,16 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="2">
         <v>25.034279999999999</v>
@@ -3241,7 +3235,7 @@
         <v>-77.396280000000004</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -3250,19 +3244,19 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
       <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="2">
         <v>25.930413999999999</v>
@@ -3271,7 +3265,7 @@
         <v>50.637771999999998</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -3280,16 +3274,16 @@
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="2">
         <v>23.684994</v>
@@ -3298,7 +3292,7 @@
         <v>90.356330999999997</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -3307,19 +3301,19 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>80</v>
       </c>
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
       </c>
       <c r="F20" s="2">
         <v>13.193887</v>
@@ -3328,7 +3322,7 @@
         <v>-59.543197999999997</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -3337,16 +3331,16 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
       </c>
       <c r="F21" s="2">
         <v>53.709806999999998</v>
@@ -3355,7 +3349,7 @@
         <v>27.953389000000001</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -3364,13 +3358,13 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2">
         <v>50.503886999999999</v>
@@ -3379,7 +3373,7 @@
         <v>4.4699359999999997</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -3388,16 +3382,16 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
       </c>
       <c r="F23" s="2">
         <v>17.189876999999999</v>
@@ -3406,7 +3400,7 @@
         <v>-88.497649999999993</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -3415,19 +3409,19 @@
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>67</v>
       </c>
       <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
       </c>
       <c r="F24" s="2">
         <v>9.3076899999999991</v>
@@ -3436,7 +3430,7 @@
         <v>2.3158340000000002</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -3445,16 +3439,16 @@
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B25">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E25" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F25" s="2">
         <v>32.321384000000002</v>
@@ -3463,7 +3457,7 @@
         <v>-64.757369999999995</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -3472,16 +3466,16 @@
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>90</v>
       </c>
       <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="2">
         <v>27.514161999999999</v>
@@ -3490,7 +3484,7 @@
         <v>90.433600999999996</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -3499,16 +3493,16 @@
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2">
         <v>-16.290154000000001</v>
@@ -3517,7 +3511,7 @@
         <v>-63.588653000000001</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -3526,16 +3520,16 @@
     </row>
     <row r="28" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>40</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
       </c>
       <c r="F28" s="2">
         <v>43.915886</v>
@@ -3544,7 +3538,7 @@
         <v>17.679075999999998</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -3553,16 +3547,16 @@
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>67</v>
       </c>
       <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="2">
         <v>-22.328474</v>
@@ -3571,7 +3565,7 @@
         <v>24.684866</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -3580,13 +3574,13 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2">
         <v>-14.235004</v>
@@ -3595,7 +3589,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -3604,13 +3598,13 @@
     </row>
     <row r="31" spans="1:9" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F31" s="2">
         <v>-6.3431940000000004</v>
@@ -3619,7 +3613,7 @@
         <v>71.876519000000002</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -3628,16 +3622,16 @@
     </row>
     <row r="32" spans="1:9" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B32">
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E32" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F32" s="2">
         <v>18.420694999999998</v>
@@ -3646,7 +3640,7 @@
         <v>-64.639967999999996</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -3655,13 +3649,13 @@
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2">
         <v>4.5352769999999998</v>
@@ -3670,7 +3664,7 @@
         <v>114.72766900000001</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -3679,16 +3673,16 @@
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>40</v>
       </c>
       <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
         <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
       </c>
       <c r="F34" s="2">
         <v>42.733882999999999</v>
@@ -3697,7 +3691,7 @@
         <v>25.48583</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -3706,13 +3700,13 @@
     </row>
     <row r="35" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2">
         <v>12.238333000000001</v>
@@ -3721,7 +3715,7 @@
         <v>-1.561593</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -3730,13 +3724,13 @@
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2">
         <v>-3.3730560000000001</v>
@@ -3745,7 +3739,7 @@
         <v>29.918886000000001</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -3754,19 +3748,19 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B37">
         <v>67</v>
       </c>
       <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
         <v>118</v>
-      </c>
-      <c r="D37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
       </c>
       <c r="F37" s="2">
         <v>7.5399890000000003</v>
@@ -3775,7 +3769,7 @@
         <v>-5.5470800000000002</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -3784,19 +3778,19 @@
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>67</v>
       </c>
       <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
         <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>85</v>
       </c>
       <c r="F38" s="2">
         <v>12.565678999999999</v>
@@ -3805,7 +3799,7 @@
         <v>104.99096299999999</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -3814,13 +3808,13 @@
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2">
         <v>7.3697220000000003</v>
@@ -3829,7 +3823,7 @@
         <v>12.354722000000001</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
@@ -3838,16 +3832,16 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
         <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
       </c>
       <c r="F40" s="2">
         <v>56.130366000000002</v>
@@ -3856,7 +3850,7 @@
         <v>-106.346771</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -3865,16 +3859,16 @@
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2">
         <v>16.002082000000001</v>
@@ -3883,7 +3877,7 @@
         <v>-24.013197000000002</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -3892,16 +3886,16 @@
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E42" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F42" s="2">
         <v>19.513469000000001</v>
@@ -3910,7 +3904,7 @@
         <v>-80.566956000000005</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -3919,13 +3913,13 @@
     </row>
     <row r="43" spans="1:9" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2">
         <v>6.6111110000000002</v>
@@ -3934,7 +3928,7 @@
         <v>20.939444000000002</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -3943,13 +3937,13 @@
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2">
         <v>15.454166000000001</v>
@@ -3958,7 +3952,7 @@
         <v>18.732206999999999</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -3967,16 +3961,16 @@
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>40</v>
       </c>
       <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
         <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
       </c>
       <c r="F45" s="2">
         <v>-35.675147000000003</v>
@@ -3985,7 +3979,7 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -3994,16 +3988,16 @@
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E46" t="s">
         <v>100</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
       </c>
       <c r="F46" s="2">
         <v>35.861660000000001</v>
@@ -4012,22 +4006,22 @@
         <v>104.195397</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F47" s="2">
         <v>10.283300000000001</v>
@@ -4043,16 +4037,16 @@
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2">
         <v>4.5708679999999999</v>
@@ -4061,7 +4055,7 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
@@ -4070,16 +4064,16 @@
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2">
         <v>-11.875000999999999</v>
@@ -4088,7 +4082,7 @@
         <v>43.872219000000001</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
@@ -4097,16 +4091,16 @@
     </row>
     <row r="50" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B50">
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F50" s="2">
         <v>-21.236736000000001</v>
@@ -4115,7 +4109,7 @@
         <v>-159.777671</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -4124,16 +4118,16 @@
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51">
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2">
         <v>9.7489170000000005</v>
@@ -4142,7 +4136,7 @@
         <v>-83.753428</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
@@ -4151,16 +4145,16 @@
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2">
         <v>45.1</v>
@@ -4169,7 +4163,7 @@
         <v>15.2</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
@@ -4178,16 +4172,16 @@
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="2">
         <v>21.521757000000001</v>
@@ -4196,7 +4190,7 @@
         <v>-77.781166999999996</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
@@ -4205,16 +4199,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B54">
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F54">
         <v>12.169600000000001</v>
@@ -4229,16 +4223,16 @@
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2">
         <v>35.126412999999999</v>
@@ -4247,7 +4241,7 @@
         <v>33.429859</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
@@ -4256,16 +4250,16 @@
     </row>
     <row r="56" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2">
         <v>49.817492000000001</v>
@@ -4274,7 +4268,7 @@
         <v>15.472962000000001</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
@@ -4283,16 +4277,16 @@
     </row>
     <row r="57" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57" s="2">
         <v>-4.0383329999999997</v>
@@ -4301,7 +4295,7 @@
         <v>21.758664</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
@@ -4310,13 +4304,13 @@
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2">
         <v>56.263919999999999</v>
@@ -4325,7 +4319,7 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
@@ -4334,19 +4328,19 @@
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59">
         <v>67</v>
       </c>
       <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" t="s">
         <v>136</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" t="s">
-        <v>138</v>
       </c>
       <c r="F59" s="2">
         <v>11.825138000000001</v>
@@ -4355,7 +4349,7 @@
         <v>42.590274999999998</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
@@ -4364,16 +4358,16 @@
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F60" s="2">
         <v>15.414999</v>
@@ -4382,7 +4376,7 @@
         <v>-61.370975999999999</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
@@ -4391,16 +4385,16 @@
     </row>
     <row r="61" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F61" s="2">
         <v>18.735693000000001</v>
@@ -4409,7 +4403,7 @@
         <v>-70.162650999999997</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
@@ -4418,16 +4412,16 @@
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" s="3">
         <v>-8.8742169999999998</v>
@@ -4443,13 +4437,13 @@
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F63" s="2">
         <v>-1.8312390000000001</v>
@@ -4458,7 +4452,7 @@
         <v>-78.183406000000005</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
@@ -4467,13 +4461,13 @@
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64">
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>600</v>
@@ -4485,7 +4479,7 @@
         <v>30.802498</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
@@ -4494,16 +4488,16 @@
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65">
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" s="2">
         <v>13.794185000000001</v>
@@ -4512,7 +4506,7 @@
         <v>-88.896529999999998</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
@@ -4521,13 +4515,13 @@
     </row>
     <row r="66" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F66" s="2">
         <v>1.650801</v>
@@ -4536,7 +4530,7 @@
         <v>10.267894999999999</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
@@ -4545,13 +4539,13 @@
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F67" s="2">
         <v>15.179384000000001</v>
@@ -4560,7 +4554,7 @@
         <v>39.782333999999999</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="1">100-B67</f>
@@ -4569,13 +4563,13 @@
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F68" s="2">
         <v>58.595272000000001</v>
@@ -4584,7 +4578,7 @@
         <v>25.013607</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
@@ -4593,13 +4587,13 @@
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F69" s="2">
         <v>-26.522503</v>
@@ -4608,7 +4602,7 @@
         <v>31.465865999999998</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
@@ -4617,19 +4611,19 @@
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B70">
         <v>67</v>
       </c>
       <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
         <v>161</v>
-      </c>
-      <c r="D70" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" t="s">
-        <v>163</v>
       </c>
       <c r="F70" s="2">
         <v>9.1449999999999996</v>
@@ -4638,7 +4632,7 @@
         <v>40.489673000000003</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
@@ -4647,16 +4641,16 @@
     </row>
     <row r="71" spans="1:9" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F71" s="2">
         <v>-51.796253</v>
@@ -4665,7 +4659,7 @@
         <v>-59.523612999999997</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
@@ -4674,13 +4668,13 @@
     </row>
     <row r="72" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F72" s="2">
         <v>61.892634999999999</v>
@@ -4689,7 +4683,7 @@
         <v>-6.9118060000000003</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
@@ -4698,16 +4692,16 @@
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B73">
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F73" s="2">
         <v>-16.578192999999999</v>
@@ -4716,7 +4710,7 @@
         <v>179.414413</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
@@ -4725,13 +4719,13 @@
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F74" s="2">
         <v>61.924109999999999</v>
@@ -4740,7 +4734,7 @@
         <v>25.748151</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
@@ -4749,16 +4743,16 @@
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F75" s="2">
         <v>46.227637999999999</v>
@@ -4767,7 +4761,7 @@
         <v>2.213749</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
@@ -4776,16 +4770,16 @@
     </row>
     <row r="76" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E76" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F76" s="2">
         <v>3.9338890000000002</v>
@@ -4794,7 +4788,7 @@
         <v>-53.125782000000001</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
@@ -4803,13 +4797,13 @@
     </row>
     <row r="77" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B77">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F77" s="2">
         <v>-17.679742000000001</v>
@@ -4818,7 +4812,7 @@
         <v>-149.40684300000001</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
@@ -4827,19 +4821,19 @@
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B78">
         <v>67</v>
       </c>
       <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" t="s">
         <v>173</v>
-      </c>
-      <c r="D78" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" t="s">
-        <v>175</v>
       </c>
       <c r="F78" s="2">
         <v>-0.80368899999999999</v>
@@ -4848,7 +4842,7 @@
         <v>11.609444</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
@@ -4857,16 +4851,16 @@
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2">
         <v>13.443182</v>
@@ -4875,7 +4869,7 @@
         <v>-15.310138999999999</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
@@ -4884,19 +4878,19 @@
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B80">
         <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F80" s="2">
         <v>42.315407</v>
@@ -4905,7 +4899,7 @@
         <v>43.356892000000002</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
@@ -4914,16 +4908,16 @@
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F81" s="2">
         <v>51.165691000000002</v>
@@ -4932,7 +4926,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
@@ -4941,13 +4935,13 @@
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B82">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F82" s="2">
         <v>7.9465269999999997</v>
@@ -4956,7 +4950,7 @@
         <v>-1.0231939999999999</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
@@ -4965,16 +4959,16 @@
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B83">
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F83" s="2">
         <v>36.137740999999998</v>
@@ -4983,7 +4977,7 @@
         <v>-5.3453739999999996</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
@@ -4992,13 +4986,13 @@
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F84" s="2">
         <v>39.074207999999999</v>
@@ -5007,7 +5001,7 @@
         <v>21.824311999999999</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
@@ -5016,13 +5010,13 @@
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F85" s="2">
         <v>71.706935999999999</v>
@@ -5031,7 +5025,7 @@
         <v>-42.604303000000002</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
@@ -5040,16 +5034,16 @@
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B86">
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2">
         <v>12.262776000000001</v>
@@ -5058,7 +5052,7 @@
         <v>-61.604171000000001</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
@@ -5067,13 +5061,13 @@
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F87" s="2">
         <v>16.995971000000001</v>
@@ -5082,7 +5076,7 @@
         <v>-62.067641000000002</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
@@ -5091,13 +5085,13 @@
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F88" s="2">
         <v>13.444304000000001</v>
@@ -5106,7 +5100,7 @@
         <v>144.79373100000001</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
@@ -5115,16 +5109,16 @@
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89">
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F89" s="2">
         <v>15.783471</v>
@@ -5133,7 +5127,7 @@
         <v>-90.230759000000006</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
@@ -5142,16 +5136,16 @@
     </row>
     <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90">
         <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F90" s="2">
         <v>9.9455869999999997</v>
@@ -5160,7 +5154,7 @@
         <v>-9.6966450000000002</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
@@ -5169,16 +5163,16 @@
     </row>
     <row r="91" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B91">
         <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F91" s="2">
         <v>11.803749</v>
@@ -5187,7 +5181,7 @@
         <v>-15.180413</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
@@ -5196,16 +5190,16 @@
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92">
         <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F92" s="2">
         <v>4.8604159999999998</v>
@@ -5214,7 +5208,7 @@
         <v>-58.93018</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
@@ -5223,16 +5217,16 @@
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B93">
         <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2">
         <v>18.971187</v>
@@ -5241,7 +5235,7 @@
         <v>-72.285214999999994</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
@@ -5250,16 +5244,16 @@
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B94">
         <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E94" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F94" s="2">
         <v>15.199999</v>
@@ -5268,7 +5262,7 @@
         <v>-86.241905000000003</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
@@ -5277,16 +5271,16 @@
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B95">
         <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2">
         <v>22.396428</v>
@@ -5295,7 +5289,7 @@
         <v>114.109497</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
@@ -5304,13 +5298,13 @@
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F96" s="2">
         <v>47.162494000000002</v>
@@ -5319,7 +5313,7 @@
         <v>19.503304</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
@@ -5328,13 +5322,13 @@
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F97" s="2">
         <v>64.963050999999993</v>
@@ -5343,7 +5337,7 @@
         <v>-19.020835000000002</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
@@ -5352,7 +5346,7 @@
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B98">
         <v>100</v>
@@ -5364,7 +5358,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
@@ -5373,19 +5367,19 @@
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B99">
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F99" s="2">
         <v>-0.78927499999999995</v>
@@ -5394,7 +5388,7 @@
         <v>113.92132700000001</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
@@ -5403,16 +5397,16 @@
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B100">
         <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F100" s="2">
         <v>32.427908000000002</v>
@@ -5421,7 +5415,7 @@
         <v>53.688046</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
@@ -5430,13 +5424,13 @@
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F101" s="2">
         <v>33.223191</v>
@@ -5445,7 +5439,7 @@
         <v>43.679290999999999</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
@@ -5454,16 +5448,16 @@
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F102" s="2">
         <v>53.412909999999997</v>
@@ -5472,7 +5466,7 @@
         <v>-8.2438900000000004</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I102">
         <f t="shared" si="1"/>
@@ -5481,16 +5475,16 @@
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F103" s="2">
         <v>31.046050999999999</v>
@@ -5499,7 +5493,7 @@
         <v>34.851612000000003</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I103">
         <f t="shared" si="1"/>
@@ -5508,13 +5502,13 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F104" s="2">
         <v>41.871940000000002</v>
@@ -5523,7 +5517,7 @@
         <v>12.56738</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
@@ -5532,13 +5526,13 @@
     </row>
     <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B105">
         <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F105" s="2">
         <v>18.109580999999999</v>
@@ -5547,7 +5541,7 @@
         <v>-77.297507999999993</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I105">
         <f t="shared" si="1"/>
@@ -5556,16 +5550,16 @@
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" t="s">
         <v>224</v>
-      </c>
-      <c r="B106">
-        <v>20</v>
-      </c>
-      <c r="C106" t="s">
-        <v>225</v>
-      </c>
-      <c r="E106" t="s">
-        <v>226</v>
       </c>
       <c r="F106" s="2">
         <v>36.204824000000002</v>
@@ -5574,25 +5568,25 @@
         <v>138.25292400000001</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I106">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107">
         <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107" s="2">
         <v>30.585163999999999</v>
@@ -5601,25 +5595,25 @@
         <v>36.238413999999999</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I107">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
-      </c>
-      <c r="E108" t="s">
-        <v>231</v>
+        <v>596</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="F108" s="2">
         <v>48.019573000000001</v>
@@ -5628,28 +5622,28 @@
         <v>66.923683999999994</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I108">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B109">
         <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F109" s="2">
         <v>-2.3559E-2</v>
@@ -5658,7 +5652,7 @@
         <v>37.906193000000002</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I109">
         <f t="shared" si="1"/>
@@ -5667,13 +5661,13 @@
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F110" s="2">
         <v>-3.3704170000000002</v>
@@ -5682,7 +5676,7 @@
         <v>-168.734039</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I110">
         <f t="shared" si="1"/>
@@ -5691,13 +5685,13 @@
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F111" s="2">
         <v>29.31166</v>
@@ -5706,7 +5700,7 @@
         <v>47.481766</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
@@ -5715,16 +5709,16 @@
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B112">
         <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E112" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F112" s="2">
         <v>41.20438</v>
@@ -5733,7 +5727,7 @@
         <v>74.766098</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I112">
         <f t="shared" si="1"/>
@@ -5742,19 +5736,19 @@
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B113">
         <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F113" s="2">
         <v>19.856269999999999</v>
@@ -5763,7 +5757,7 @@
         <v>102.495496</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I113">
         <f t="shared" si="1"/>
@@ -5772,13 +5766,13 @@
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F114" s="2">
         <v>56.879635</v>
@@ -5787,7 +5781,7 @@
         <v>24.603189</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I114">
         <f t="shared" si="1"/>
@@ -5796,16 +5790,16 @@
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E115" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F115" s="2">
         <v>33.854720999999998</v>
@@ -5814,7 +5808,7 @@
         <v>35.862285</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I115">
         <f t="shared" si="1"/>
@@ -5823,16 +5817,16 @@
     </row>
     <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B116">
         <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F116" s="2">
         <v>-29.609988000000001</v>
@@ -5841,7 +5835,7 @@
         <v>28.233608</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I116">
         <f t="shared" si="1"/>
@@ -5850,13 +5844,13 @@
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F117" s="2">
         <v>6.4280549999999996</v>
@@ -5865,7 +5859,7 @@
         <v>-9.4294989999999999</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I117">
         <f t="shared" si="1"/>
@@ -5874,13 +5868,13 @@
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F118" s="2">
         <v>26.335100000000001</v>
@@ -5889,7 +5883,7 @@
         <v>17.228331000000001</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I118">
         <f t="shared" si="1"/>
@@ -5898,13 +5892,13 @@
     </row>
     <row r="119" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B119">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F119" s="2">
         <v>47.165999999999997</v>
@@ -5913,7 +5907,7 @@
         <v>9.5553729999999995</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I119">
         <f t="shared" si="1"/>
@@ -5922,13 +5916,13 @@
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B120">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F120" s="2">
         <v>55.169438</v>
@@ -5937,7 +5931,7 @@
         <v>23.881274999999999</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I120">
         <f t="shared" si="1"/>
@@ -5946,13 +5940,13 @@
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B121">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F121" s="2">
         <v>49.815272999999998</v>
@@ -5961,7 +5955,7 @@
         <v>6.1295830000000002</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I121">
         <f t="shared" si="1"/>
@@ -5970,16 +5964,16 @@
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B122">
         <v>80</v>
       </c>
       <c r="C122" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122" s="2">
         <v>22.198744999999999</v>
@@ -5988,7 +5982,7 @@
         <v>113.543873</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="I122">
         <f t="shared" si="1"/>
@@ -5997,16 +5991,16 @@
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B123">
         <v>67</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F123" s="2">
         <v>-18.766946999999998</v>
@@ -6015,7 +6009,7 @@
         <v>46.869107</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I123">
         <f t="shared" si="1"/>
@@ -6024,16 +6018,16 @@
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B124">
         <v>67</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F124" s="2">
         <v>-13.254308</v>
@@ -6042,7 +6036,7 @@
         <v>34.301524999999998</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I124">
         <f t="shared" si="1"/>
@@ -6051,19 +6045,19 @@
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B125">
         <v>67</v>
       </c>
       <c r="C125" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F125" s="2">
         <v>4.2104840000000001</v>
@@ -6072,7 +6066,7 @@
         <v>101.97576599999999</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I125">
         <f t="shared" si="1"/>
@@ -6081,16 +6075,16 @@
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B126">
         <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F126" s="2">
         <v>3.2027779999999999</v>
@@ -6099,7 +6093,7 @@
         <v>73.220680000000002</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I126">
         <f t="shared" si="1"/>
@@ -6108,13 +6102,13 @@
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B127">
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F127" s="2">
         <v>17.570692000000001</v>
@@ -6123,7 +6117,7 @@
         <v>-3.9961660000000001</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I127">
         <f t="shared" si="1"/>
@@ -6132,13 +6126,13 @@
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B128">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F128" s="2">
         <v>35.937496000000003</v>
@@ -6147,7 +6141,7 @@
         <v>14.375416</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I128">
         <f t="shared" si="1"/>
@@ -6156,16 +6150,16 @@
     </row>
     <row r="129" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B129">
         <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2">
         <v>7.1314739999999999</v>
@@ -6174,7 +6168,7 @@
         <v>171.18447800000001</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I129">
         <f t="shared" si="1"/>
@@ -6183,13 +6177,13 @@
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B130">
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F130" s="2">
         <v>14.641527999999999</v>
@@ -6198,7 +6192,7 @@
         <v>-61.024174000000002</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I130">
         <f t="shared" si="1"/>
@@ -6207,13 +6201,13 @@
     </row>
     <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B131">
         <v>67</v>
       </c>
       <c r="C131" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F131" s="2">
         <v>21.00789</v>
@@ -6222,7 +6216,7 @@
         <v>-10.940835</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="2">100-B131</f>
@@ -6231,16 +6225,16 @@
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B132">
         <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F132" s="2">
         <v>-20.348403999999999</v>
@@ -6249,7 +6243,7 @@
         <v>57.552152</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I132">
         <f t="shared" si="2"/>
@@ -6258,13 +6252,13 @@
     </row>
     <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B133">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F133" s="2">
         <v>-12.827500000000001</v>
@@ -6273,7 +6267,7 @@
         <v>45.166243999999999</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I133">
         <f t="shared" si="2"/>
@@ -6282,16 +6276,16 @@
     </row>
     <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B134">
         <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F134" s="2">
         <v>23.634501</v>
@@ -6300,7 +6294,7 @@
         <v>-102.552784</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I134">
         <f t="shared" si="2"/>
@@ -6309,16 +6303,16 @@
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B135">
         <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F135" s="2">
         <v>7.425554</v>
@@ -6327,7 +6321,7 @@
         <v>150.55081200000001</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I135">
         <f t="shared" si="2"/>
@@ -6336,16 +6330,16 @@
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B136">
         <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F136" s="2">
         <v>47.411631</v>
@@ -6354,7 +6348,7 @@
         <v>28.369885</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I136">
         <f t="shared" si="2"/>
@@ -6363,13 +6357,13 @@
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B137">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F137" s="2">
         <v>43.750298000000001</v>
@@ -6378,7 +6372,7 @@
         <v>7.4128410000000002</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I137">
         <f t="shared" si="2"/>
@@ -6387,16 +6381,16 @@
     </row>
     <row r="138" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B138">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F138" s="2">
         <v>46.862496</v>
@@ -6405,25 +6399,25 @@
         <v>103.846656</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I138">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B139">
         <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E139" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F139" s="2">
         <v>42.708677999999999</v>
@@ -6432,7 +6426,7 @@
         <v>19.374389999999998</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I139">
         <f t="shared" si="2"/>
@@ -6441,16 +6435,16 @@
     </row>
     <row r="140" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B140">
         <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E140" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F140" s="2">
         <v>16.742498000000001</v>
@@ -6459,7 +6453,7 @@
         <v>-62.187365999999997</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="I140">
         <f t="shared" si="2"/>
@@ -6468,13 +6462,13 @@
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B141">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F141" s="2">
         <v>31.791702000000001</v>
@@ -6483,7 +6477,7 @@
         <v>-7.0926200000000001</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I141">
         <f t="shared" si="2"/>
@@ -6492,16 +6486,16 @@
     </row>
     <row r="142" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B142">
         <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F142" s="2">
         <v>-18.665694999999999</v>
@@ -6510,7 +6504,7 @@
         <v>35.529561999999999</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I142">
         <f t="shared" si="2"/>
@@ -6519,19 +6513,19 @@
     </row>
     <row r="143" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B143">
         <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D143" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F143" s="2">
         <v>21.913965000000001</v>
@@ -6540,7 +6534,7 @@
         <v>95.956222999999994</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I143">
         <f t="shared" si="2"/>
@@ -6549,13 +6543,13 @@
     </row>
     <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B144">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F144" s="2">
         <v>-22.957640000000001</v>
@@ -6564,7 +6558,7 @@
         <v>18.490410000000001</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I144">
         <f t="shared" si="2"/>
@@ -6573,13 +6567,13 @@
     </row>
     <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B145">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F145" s="2">
         <v>-0.52277799999999996</v>
@@ -6588,7 +6582,7 @@
         <v>166.93150299999999</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I145">
         <f t="shared" si="2"/>
@@ -6597,16 +6591,16 @@
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B146">
         <v>90</v>
       </c>
       <c r="C146" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E146" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F146" s="2">
         <v>28.394856999999998</v>
@@ -6615,7 +6609,7 @@
         <v>84.124008000000003</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I146">
         <f t="shared" si="2"/>
@@ -6624,13 +6618,13 @@
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B147">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F147" s="2">
         <v>52.132632999999998</v>
@@ -6639,7 +6633,7 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I147">
         <f t="shared" si="2"/>
@@ -6648,13 +6642,13 @@
     </row>
     <row r="148" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B148">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F148" s="2">
         <v>-20.904305000000001</v>
@@ -6663,7 +6657,7 @@
         <v>165.618042</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I148">
         <f t="shared" si="2"/>
@@ -6672,16 +6666,16 @@
     </row>
     <row r="149" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B149">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E149" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F149" s="2">
         <v>-40.900556999999999</v>
@@ -6690,7 +6684,7 @@
         <v>174.88597100000001</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I149">
         <f t="shared" si="2"/>
@@ -6699,16 +6693,16 @@
     </row>
     <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B150">
         <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E150" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F150" s="2">
         <v>12.865416</v>
@@ -6717,7 +6711,7 @@
         <v>-85.207228999999998</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I150">
         <f t="shared" si="2"/>
@@ -6726,13 +6720,13 @@
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B151">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F151" s="2">
         <v>17.607789</v>
@@ -6741,7 +6735,7 @@
         <v>8.0816660000000002</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I151">
         <f t="shared" si="2"/>
@@ -6750,13 +6744,13 @@
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B152">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F152" s="2">
         <v>9.0819989999999997</v>
@@ -6765,7 +6759,7 @@
         <v>8.6752769999999995</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I152">
         <f t="shared" si="2"/>
@@ -6774,16 +6768,16 @@
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B153">
         <v>80</v>
       </c>
       <c r="C153" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F153" s="2">
         <v>-19.054445000000001</v>
@@ -6792,7 +6786,7 @@
         <v>-169.867233</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I153">
         <f t="shared" si="2"/>
@@ -6801,13 +6795,13 @@
     </row>
     <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F154" s="2">
         <v>40.339852</v>
@@ -6816,7 +6810,7 @@
         <v>127.510093</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I154">
         <f t="shared" si="2"/>
@@ -6825,16 +6819,16 @@
     </row>
     <row r="155" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B155">
         <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E155" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F155" s="2">
         <v>41.608635</v>
@@ -6843,7 +6837,7 @@
         <v>21.745274999999999</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I155">
         <f t="shared" si="2"/>
@@ -6852,13 +6846,13 @@
     </row>
     <row r="156" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B156">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F156" s="2">
         <v>15.097899999999999</v>
@@ -6874,13 +6868,13 @@
     </row>
     <row r="157" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B157">
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F157" s="2">
         <v>60.472023999999998</v>
@@ -6889,7 +6883,7 @@
         <v>8.4689460000000008</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I157">
         <f t="shared" si="2"/>
@@ -6898,19 +6892,19 @@
     </row>
     <row r="158" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B158">
         <v>40</v>
       </c>
       <c r="C158" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D158" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E158" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F158" s="2">
         <v>21.512582999999999</v>
@@ -6919,7 +6913,7 @@
         <v>55.923254999999997</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I158">
         <f t="shared" si="2"/>
@@ -6928,16 +6922,16 @@
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E159" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F159" s="2">
         <v>30.375321</v>
@@ -6946,7 +6940,7 @@
         <v>69.345116000000004</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I159">
         <f t="shared" si="2"/>
@@ -6955,16 +6949,16 @@
     </row>
     <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B160">
         <v>67</v>
       </c>
       <c r="C160" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F160" s="2">
         <v>7.5149800000000004</v>
@@ -6973,7 +6967,7 @@
         <v>134.58251999999999</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I160">
         <f t="shared" si="2"/>
@@ -6982,19 +6976,19 @@
     </row>
     <row r="161" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B161">
         <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E161" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F161" s="2">
         <v>8.5379810000000003</v>
@@ -7003,7 +6997,7 @@
         <v>-80.782127000000003</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I161">
         <f t="shared" si="2"/>
@@ -7012,13 +7006,13 @@
     </row>
     <row r="162" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B162">
         <v>67</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F162" s="2">
         <v>-6.3149930000000003</v>
@@ -7027,7 +7021,7 @@
         <v>143.95554999999999</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I162">
         <f t="shared" si="2"/>
@@ -7036,13 +7030,13 @@
     </row>
     <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B163">
         <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F163" s="2">
         <v>-23.442502999999999</v>
@@ -7051,7 +7045,7 @@
         <v>-58.443832</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I163">
         <f t="shared" si="2"/>
@@ -7060,16 +7054,16 @@
     </row>
     <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B164">
         <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E164" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F164" s="2">
         <v>-9.1899669999999993</v>
@@ -7078,7 +7072,7 @@
         <v>-75.015152</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I164">
         <f t="shared" si="2"/>
@@ -7087,16 +7081,16 @@
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B165">
         <v>40</v>
       </c>
       <c r="C165" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F165" s="2">
         <v>12.879721</v>
@@ -7105,7 +7099,7 @@
         <v>121.774017</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I165">
         <f t="shared" si="2"/>
@@ -7114,16 +7108,16 @@
     </row>
     <row r="166" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B166">
         <v>80</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F166" s="2">
         <v>-24.703614999999999</v>
@@ -7132,7 +7126,7 @@
         <v>-127.439308</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="I166">
         <f t="shared" si="2"/>
@@ -7141,13 +7135,13 @@
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B167">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F167" s="2">
         <v>51.919438</v>
@@ -7156,7 +7150,7 @@
         <v>19.145136000000001</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I167">
         <f t="shared" si="2"/>
@@ -7165,13 +7159,13 @@
     </row>
     <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B168">
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F168" s="2">
         <v>39.399872000000002</v>
@@ -7180,7 +7174,7 @@
         <v>-8.2244539999999997</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I168">
         <f t="shared" si="2"/>
@@ -7189,16 +7183,16 @@
     </row>
     <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B169">
         <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D169" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F169" s="2">
         <v>8.2208330000000007</v>
@@ -7207,7 +7201,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I169">
         <f t="shared" si="2"/>
@@ -7216,16 +7210,16 @@
     </row>
     <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B170">
         <v>80</v>
       </c>
       <c r="C170" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F170" s="2">
         <v>25.354825999999999</v>
@@ -7234,7 +7228,7 @@
         <v>51.183883999999999</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I170">
         <f t="shared" si="2"/>
@@ -7243,16 +7237,16 @@
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B171">
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D171" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F171" s="2">
         <v>-21.115141000000001</v>
@@ -7261,7 +7255,7 @@
         <v>55.536383999999998</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="I171">
         <f t="shared" si="2"/>
@@ -7270,16 +7264,16 @@
     </row>
     <row r="172" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B172">
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E172" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F172" s="2">
         <v>-0.228021</v>
@@ -7288,7 +7282,7 @@
         <v>15.827659000000001</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="I172">
         <f t="shared" si="2"/>
@@ -7297,16 +7291,16 @@
     </row>
     <row r="173" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B173">
         <v>30</v>
       </c>
       <c r="C173" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F173" s="2">
         <v>45.943161000000003</v>
@@ -7315,7 +7309,7 @@
         <v>24.966760000000001</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I173">
         <f t="shared" si="2"/>
@@ -7324,16 +7318,16 @@
     </row>
     <row r="174" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B174">
         <v>67</v>
       </c>
       <c r="C174" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F174" s="2">
         <v>61.524009999999997</v>
@@ -7342,7 +7336,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I174">
         <f t="shared" si="2"/>
@@ -7351,19 +7345,19 @@
     </row>
     <row r="175" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B175">
         <v>67</v>
       </c>
       <c r="C175" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E175" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F175" s="2">
         <v>-1.9402779999999999</v>
@@ -7372,7 +7366,7 @@
         <v>29.873888000000001</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I175">
         <f t="shared" si="2"/>
@@ -7381,13 +7375,13 @@
     </row>
     <row r="176" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B176">
         <v>67</v>
       </c>
       <c r="C176" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F176" s="2">
         <v>0.18636</v>
@@ -7396,7 +7390,7 @@
         <v>6.6130810000000002</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I176">
         <f t="shared" si="2"/>
@@ -7405,13 +7399,13 @@
     </row>
     <row r="177" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B177">
         <v>67</v>
       </c>
       <c r="C177" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F177" s="2">
         <v>-24.143474000000001</v>
@@ -7420,7 +7414,7 @@
         <v>-10.030696000000001</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="I177">
         <f t="shared" si="2"/>
@@ -7429,16 +7423,16 @@
     </row>
     <row r="178" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B178">
         <v>80</v>
       </c>
       <c r="C178" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F178" s="2">
         <v>17.357821999999999</v>
@@ -7447,7 +7441,7 @@
         <v>-62.782997999999999</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I178">
         <f t="shared" si="2"/>
@@ -7456,16 +7450,16 @@
     </row>
     <row r="179" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B179">
         <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D179" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F179" s="2">
         <v>13.909444000000001</v>
@@ -7474,7 +7468,7 @@
         <v>-60.978892999999999</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I179">
         <f t="shared" si="2"/>
@@ -7483,13 +7477,13 @@
     </row>
     <row r="180" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B180">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F180" s="2">
         <v>18.070799999999998</v>
@@ -7505,13 +7499,13 @@
     </row>
     <row r="181" spans="1:9" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B181">
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F181" s="2">
         <v>46.941935999999998</v>
@@ -7520,7 +7514,7 @@
         <v>-56.27111</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I181">
         <f t="shared" si="2"/>
@@ -7529,16 +7523,16 @@
     </row>
     <row r="182" spans="1:9" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B182">
         <v>80</v>
       </c>
       <c r="C182" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F182" s="2">
         <v>12.984305000000001</v>
@@ -7547,7 +7541,7 @@
         <v>-61.287227999999999</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I182">
         <f t="shared" si="2"/>
@@ -7556,16 +7550,16 @@
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B183">
         <v>67</v>
       </c>
       <c r="C183" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D183" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F183" s="2">
         <v>-13.759029</v>
@@ -7574,7 +7568,7 @@
         <v>-172.10462899999999</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I183">
         <f t="shared" si="2"/>
@@ -7583,13 +7577,13 @@
     </row>
     <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B184">
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F184" s="2">
         <v>43.942360000000001</v>
@@ -7598,7 +7592,7 @@
         <v>12.457777</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I184">
         <f t="shared" si="2"/>
@@ -7607,16 +7601,16 @@
     </row>
     <row r="185" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B185">
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E185" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F185" s="2">
         <v>23.885942</v>
@@ -7625,7 +7619,7 @@
         <v>45.079161999999997</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I185">
         <f t="shared" si="2"/>
@@ -7634,16 +7628,16 @@
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B186">
         <v>80</v>
       </c>
       <c r="C186" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F186" s="2">
         <v>14.497401</v>
@@ -7652,7 +7646,7 @@
         <v>-14.452362000000001</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I186">
         <f t="shared" si="2"/>
@@ -7661,19 +7655,19 @@
     </row>
     <row r="187" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B187">
         <v>80</v>
       </c>
       <c r="C187" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F187" s="2">
         <v>44.016520999999997</v>
@@ -7682,7 +7676,7 @@
         <v>21.005859000000001</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I187">
         <f t="shared" si="2"/>
@@ -7691,16 +7685,16 @@
     </row>
     <row r="188" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B188">
         <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D188" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F188" s="2">
         <v>-4.6795739999999997</v>
@@ -7709,7 +7703,7 @@
         <v>55.491976999999999</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I188">
         <f t="shared" si="2"/>
@@ -7718,13 +7712,13 @@
     </row>
     <row r="189" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B189">
         <v>67</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F189" s="2">
         <v>8.4605549999999994</v>
@@ -7733,7 +7727,7 @@
         <v>-11.779889000000001</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I189">
         <f t="shared" si="2"/>
@@ -7742,16 +7736,16 @@
     </row>
     <row r="190" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B190">
         <v>67</v>
       </c>
       <c r="C190" t="s">
-        <v>389</v>
+        <v>597</v>
       </c>
       <c r="E190" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F190" s="2">
         <v>1.3520829999999999</v>
@@ -7760,7 +7754,7 @@
         <v>103.819836</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I190">
         <f t="shared" si="2"/>
@@ -7769,13 +7763,13 @@
     </row>
     <row r="191" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B191">
         <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F191" s="2">
         <v>48.669026000000002</v>
@@ -7784,7 +7778,7 @@
         <v>19.699024000000001</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I191">
         <f t="shared" si="2"/>
@@ -7793,13 +7787,13 @@
     </row>
     <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B192">
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F192" s="2">
         <v>46.151240999999999</v>
@@ -7808,7 +7802,7 @@
         <v>14.995463000000001</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I192">
         <f t="shared" si="2"/>
@@ -7817,13 +7811,13 @@
     </row>
     <row r="193" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B193">
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F193" s="2">
         <v>-9.6457099999999993</v>
@@ -7832,7 +7826,7 @@
         <v>160.156194</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I193">
         <f t="shared" si="2"/>
@@ -7841,16 +7835,16 @@
     </row>
     <row r="194" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B194">
         <v>50</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194" t="s">
         <v>7</v>
@@ -7862,25 +7856,25 @@
         <v>46.199615999999999</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I194">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B195">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="F195" s="2">
         <v>-30.559481999999999</v>
@@ -7889,25 +7883,25 @@
         <v>22.937505999999999</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I195">
         <f t="shared" ref="I195:I235" si="3">100-B195</f>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F196" s="2">
         <v>-54.429600000000001</v>
@@ -7916,7 +7910,7 @@
         <v>-36.587899999999998</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="I196">
         <f t="shared" si="3"/>
@@ -7925,16 +7919,16 @@
     </row>
     <row r="197" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B197">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C197" t="s">
-        <v>240</v>
+        <v>598</v>
       </c>
       <c r="E197" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F197" s="2">
         <v>35.907756999999997</v>
@@ -7943,22 +7937,22 @@
         <v>127.76692199999999</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I197">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B198">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F198" s="2">
         <v>6.8769999999999998</v>
@@ -7974,13 +7968,13 @@
     </row>
     <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B199">
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F199" s="2">
         <v>40.463667000000001</v>
@@ -7989,7 +7983,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I199">
         <f t="shared" si="3"/>
@@ -7998,19 +7992,19 @@
     </row>
     <row r="200" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B200">
         <v>67</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F200" s="2">
         <v>7.8730539999999998</v>
@@ -8019,7 +8013,7 @@
         <v>80.771797000000007</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I200">
         <f t="shared" si="3"/>
@@ -8028,13 +8022,13 @@
     </row>
     <row r="201" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B201">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F201" s="2">
         <v>12.862807</v>
@@ -8043,7 +8037,7 @@
         <v>30.217635999999999</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I201">
         <f t="shared" si="3"/>
@@ -8052,19 +8046,19 @@
     </row>
     <row r="202" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B202">
         <v>67</v>
       </c>
       <c r="C202" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F202" s="2">
         <v>3.919305</v>
@@ -8073,7 +8067,7 @@
         <v>-56.027782999999999</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I202">
         <f t="shared" si="3"/>
@@ -8082,16 +8076,16 @@
     </row>
     <row r="203" spans="1:9" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B203">
         <v>80</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D203" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F203" s="2">
         <v>77.553604000000007</v>
@@ -8100,7 +8094,7 @@
         <v>23.670272000000001</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I203">
         <f t="shared" si="3"/>
@@ -8109,13 +8103,13 @@
     </row>
     <row r="204" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B204">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F204" s="2">
         <v>60.128160999999999</v>
@@ -8124,7 +8118,7 @@
         <v>18.643501000000001</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I204">
         <f t="shared" si="3"/>
@@ -8133,13 +8127,13 @@
     </row>
     <row r="205" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B205">
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F205" s="2">
         <v>46.818187999999999</v>
@@ -8148,7 +8142,7 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I205">
         <f t="shared" si="3"/>
@@ -8157,13 +8151,13 @@
     </row>
     <row r="206" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B206">
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F206" s="2">
         <v>34.802075000000002</v>
@@ -8172,7 +8166,7 @@
         <v>38.996814999999998</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I206">
         <f t="shared" si="3"/>
@@ -8181,16 +8175,16 @@
     </row>
     <row r="207" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B207">
         <v>50</v>
       </c>
       <c r="C207" t="s">
-        <v>565</v>
+        <v>443</v>
       </c>
       <c r="D207" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F207" s="2">
         <v>23.69781</v>
@@ -8199,7 +8193,7 @@
         <v>120.960515</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="I207">
         <f t="shared" si="3"/>
@@ -8208,16 +8202,16 @@
     </row>
     <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B208">
         <v>67</v>
       </c>
       <c r="C208" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E208" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F208" s="2">
         <v>38.861033999999997</v>
@@ -8226,7 +8220,7 @@
         <v>71.276093000000003</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I208">
         <f t="shared" si="3"/>
@@ -8235,16 +8229,16 @@
     </row>
     <row r="209" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B209">
         <v>67</v>
       </c>
       <c r="C209" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D209" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F209" s="2">
         <v>-6.3690280000000001</v>
@@ -8253,7 +8247,7 @@
         <v>34.888821999999998</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I209">
         <f t="shared" si="3"/>
@@ -8262,19 +8256,19 @@
     </row>
     <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B210">
         <v>67</v>
       </c>
       <c r="C210" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D210" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E210" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F210" s="2">
         <v>15.870032</v>
@@ -8283,7 +8277,7 @@
         <v>100.992541</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I210">
         <f t="shared" si="3"/>
@@ -8292,16 +8286,16 @@
     </row>
     <row r="211" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B211">
         <v>67</v>
       </c>
       <c r="C211" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D211" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F211" s="2">
         <v>8.6195430000000002</v>
@@ -8310,7 +8304,7 @@
         <v>0.82478200000000002</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I211">
         <f t="shared" si="3"/>
@@ -8319,13 +8313,13 @@
     </row>
     <row r="212" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F212" s="2">
         <v>-8.9673630000000006</v>
@@ -8334,7 +8328,7 @@
         <v>-171.85588100000001</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I212">
         <f t="shared" si="3"/>
@@ -8343,13 +8337,13 @@
     </row>
     <row r="213" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B213">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F213" s="2">
         <v>-21.178985999999998</v>
@@ -8358,7 +8352,7 @@
         <v>-175.19824199999999</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I213">
         <f t="shared" si="3"/>
@@ -8367,16 +8361,16 @@
     </row>
     <row r="214" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B214">
         <v>80</v>
       </c>
       <c r="C214" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F214" s="2">
         <v>10.691803</v>
@@ -8385,7 +8379,7 @@
         <v>-61.222503000000003</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I214">
         <f t="shared" si="3"/>
@@ -8394,16 +8388,16 @@
     </row>
     <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B215">
         <v>80</v>
       </c>
       <c r="C215" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F215" s="2">
         <v>33.886916999999997</v>
@@ -8412,7 +8406,7 @@
         <v>9.5374990000000004</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I215">
         <f t="shared" si="3"/>
@@ -8421,16 +8415,16 @@
     </row>
     <row r="216" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B216">
         <v>40</v>
       </c>
       <c r="C216" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E216" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F216" s="2">
         <v>38.963745000000003</v>
@@ -8439,7 +8433,7 @@
         <v>35.243321999999999</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I216">
         <f t="shared" si="3"/>
@@ -8448,16 +8442,16 @@
     </row>
     <row r="217" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E217" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F217" s="2">
         <v>38.969718999999998</v>
@@ -8466,7 +8460,7 @@
         <v>59.556277999999999</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I217">
         <f t="shared" si="3"/>
@@ -8475,16 +8469,16 @@
     </row>
     <row r="218" spans="1:9" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B218">
         <v>80</v>
       </c>
       <c r="C218" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D218" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F218" s="2">
         <v>21.694025</v>
@@ -8493,7 +8487,7 @@
         <v>-71.797927999999999</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I218">
         <f t="shared" si="3"/>
@@ -8502,16 +8496,16 @@
     </row>
     <row r="219" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B219">
         <v>67</v>
       </c>
       <c r="C219" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D219" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F219" s="2">
         <v>-7.1095350000000002</v>
@@ -8520,7 +8514,7 @@
         <v>177.64932999999999</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I219">
         <f t="shared" si="3"/>
@@ -8529,13 +8523,13 @@
     </row>
     <row r="220" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B220">
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F220" s="2">
         <v>18.335764999999999</v>
@@ -8544,7 +8538,7 @@
         <v>-64.896334999999993</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I220">
         <f t="shared" si="3"/>
@@ -8553,19 +8547,19 @@
     </row>
     <row r="221" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B221">
         <v>67</v>
       </c>
       <c r="C221" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D221" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E221" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F221" s="2">
         <v>1.3733329999999999</v>
@@ -8574,7 +8568,7 @@
         <v>32.290275000000001</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I221">
         <f t="shared" si="3"/>
@@ -8583,16 +8577,16 @@
     </row>
     <row r="222" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B222">
         <v>67</v>
       </c>
       <c r="C222" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E222" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F222" s="2">
         <v>48.379432999999999</v>
@@ -8601,7 +8595,7 @@
         <v>31.165579999999999</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I222">
         <f t="shared" si="3"/>
@@ -8610,16 +8604,16 @@
     </row>
     <row r="223" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B223">
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E223" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F223" s="2">
         <v>23.424075999999999</v>
@@ -8628,7 +8622,7 @@
         <v>53.847817999999997</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I223">
         <f t="shared" si="3"/>
@@ -8637,16 +8631,16 @@
     </row>
     <row r="224" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B224">
         <v>20</v>
       </c>
       <c r="C224" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E224" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F224" s="2">
         <v>55.378050999999999</v>
@@ -8655,7 +8649,7 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I224">
         <f t="shared" si="3"/>
@@ -8664,13 +8658,13 @@
     </row>
     <row r="225" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F225" s="2">
         <v>37.090240000000001</v>
@@ -8679,7 +8673,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I225">
         <f t="shared" si="3"/>
@@ -8688,16 +8682,16 @@
     </row>
     <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B226">
         <v>20</v>
       </c>
       <c r="C226" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E226" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F226" s="2">
         <v>-32.522779</v>
@@ -8706,7 +8700,7 @@
         <v>-55.765835000000003</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I226">
         <f t="shared" si="3"/>
@@ -8715,19 +8709,19 @@
     </row>
     <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B227">
         <v>60</v>
       </c>
       <c r="C227" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E227" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F227" s="2">
         <v>41.377490999999999</v>
@@ -8736,7 +8730,7 @@
         <v>64.585262</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I227">
         <f t="shared" si="3"/>
@@ -8745,16 +8739,16 @@
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B228">
         <v>80</v>
       </c>
       <c r="C228" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F228" s="2">
         <v>-15.376706</v>
@@ -8763,7 +8757,7 @@
         <v>166.959158</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I228">
         <f t="shared" si="3"/>
@@ -8772,16 +8766,16 @@
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B229">
         <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E229" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F229" s="2">
         <v>41.902915999999998</v>
@@ -8790,7 +8784,7 @@
         <v>12.453389</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="I229">
         <f t="shared" si="3"/>
@@ -8799,13 +8793,13 @@
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B230">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F230" s="2">
         <v>6.4237500000000001</v>
@@ -8814,7 +8808,7 @@
         <v>-66.589730000000003</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I230">
         <f t="shared" si="3"/>
@@ -8823,16 +8817,16 @@
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B231">
         <v>67</v>
       </c>
       <c r="C231" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D231" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F231" s="2">
         <v>14.058324000000001</v>
@@ -8841,7 +8835,7 @@
         <v>108.277199</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I231">
         <f t="shared" si="3"/>
@@ -8850,13 +8844,13 @@
     </row>
     <row r="232" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B232">
         <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F232" s="2">
         <v>-13.768751999999999</v>
@@ -8865,7 +8859,7 @@
         <v>-177.15609699999999</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I232">
         <f t="shared" si="3"/>
@@ -8874,16 +8868,16 @@
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E233" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F233" s="2">
         <v>15.552727000000001</v>
@@ -8892,7 +8886,7 @@
         <v>48.516387999999999</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="I233">
         <f t="shared" si="3"/>
@@ -8901,16 +8895,16 @@
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B234">
         <v>67</v>
       </c>
       <c r="C234" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F234" s="2">
         <v>-13.133896999999999</v>
@@ -8919,7 +8913,7 @@
         <v>27.849332</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I234">
         <f t="shared" si="3"/>
@@ -8928,16 +8922,16 @@
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B235">
         <v>67</v>
       </c>
       <c r="C235" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D235" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F235" s="2">
         <v>-19.015438</v>
@@ -8946,7 +8940,7 @@
         <v>29.154857</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I235">
         <f t="shared" si="3"/>

--- a/table-1.xlsx
+++ b/table-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaama\Documents\visafree_in-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEFDC1D-E9D2-4E6F-A8C3-14B08C17FF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7AC1C7-05EF-45BA-84B3-6EC3A0140C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3012,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView topLeftCell="J222" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13206,8 +13206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F6666-8C94-449E-88D0-1980C3B5894E}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="N239" sqref="N239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13217,7 +13217,7 @@
     <col min="9" max="9" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13245,10 +13245,10 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>557</v>
       </c>
       <c r="L1" t="s">
@@ -13258,7 +13258,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -13288,10 +13288,10 @@
       <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>33.939109999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>67.709952999999999</v>
       </c>
       <c r="L2" t="s">
@@ -13301,7 +13301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13331,10 +13331,10 @@
       <c r="I3" t="s">
         <v>632</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>41.153331999999999</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>20.168330999999998</v>
       </c>
       <c r="L3" t="s">
@@ -13344,7 +13344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -13371,10 +13371,10 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>28.033885999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>1.659626</v>
       </c>
       <c r="L4" t="s">
@@ -13384,7 +13384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -13411,10 +13411,10 @@
       <c r="G5" t="s">
         <v>530</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>-14.270972</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>-170.132217</v>
       </c>
       <c r="L5" t="s">
@@ -13424,7 +13424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13454,10 +13454,10 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>42.546244999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>1.6015539999999999</v>
       </c>
       <c r="L6" t="s">
@@ -13467,7 +13467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -13500,10 +13500,10 @@
       <c r="I7" t="s">
         <v>633</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>-11.202692000000001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>17.873887</v>
       </c>
       <c r="L7" t="s">
@@ -13513,7 +13513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>505</v>
       </c>
@@ -13543,10 +13543,10 @@
       <c r="I8" t="s">
         <v>578</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>18.220554</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>-63.068615000000001</v>
       </c>
       <c r="L8" t="s">
@@ -13556,7 +13556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -13586,10 +13586,10 @@
       <c r="I9" t="s">
         <v>634</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>17.060815999999999</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>-61.796427999999999</v>
       </c>
       <c r="L9" t="s">
@@ -13599,7 +13599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -13629,10 +13629,10 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>-38.416097000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>-63.616672000000001</v>
       </c>
       <c r="L10" t="s">
@@ -13642,7 +13642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -13675,10 +13675,10 @@
       <c r="I11" t="s">
         <v>636</v>
       </c>
-      <c r="J11">
-        <v>40.068098999999997</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="2">
+        <v>40.069099000000001</v>
+      </c>
+      <c r="K11" s="2">
         <v>45.038189000000003</v>
       </c>
       <c r="L11" t="s">
@@ -13688,7 +13688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>494</v>
       </c>
@@ -13718,10 +13718,10 @@
       <c r="H12" t="s">
         <v>496</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>12.52111</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>-69.968338000000003</v>
       </c>
       <c r="L12" t="s">
@@ -13731,7 +13731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>523</v>
       </c>
@@ -13761,17 +13761,17 @@
       <c r="H13" t="s">
         <v>525</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>-7.9466999999999999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>-14.3559</v>
       </c>
       <c r="M13">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>541</v>
       </c>
@@ -13801,10 +13801,10 @@
       <c r="I14" t="s">
         <v>577</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>-25.274398000000001</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>133.775136</v>
       </c>
       <c r="L14" t="s">
@@ -13814,7 +13814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -13844,10 +13844,10 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>47.516230999999998</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>14.550072</v>
       </c>
       <c r="L15" t="s">
@@ -13857,7 +13857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -13890,10 +13890,10 @@
       <c r="I16" t="s">
         <v>34</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>40.143104999999998</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>47.576926999999998</v>
       </c>
       <c r="L16" t="s">
@@ -13903,7 +13903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -13933,10 +13933,10 @@
       <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>25.034279999999999</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>-77.396280000000004</v>
       </c>
       <c r="L17" t="s">
@@ -13946,7 +13946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13979,10 +13979,10 @@
       <c r="I18" t="s">
         <v>637</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>25.930413999999999</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>50.637771999999998</v>
       </c>
       <c r="L18" t="s">
@@ -13992,7 +13992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -14022,11 +14022,11 @@
       <c r="I19" t="s">
         <v>43</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>23.684994</v>
       </c>
-      <c r="K19">
-        <v>80.356330999999997</v>
+      <c r="K19" s="2">
+        <v>90.356330999999997</v>
       </c>
       <c r="L19" t="s">
         <v>41</v>
@@ -14035,7 +14035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -14067,10 +14067,10 @@
       <c r="I20" t="s">
         <v>46</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>13.193887</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>-59.543197999999997</v>
       </c>
       <c r="L20" t="s">
@@ -14080,7 +14080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -14110,10 +14110,10 @@
       <c r="I21" t="s">
         <v>49</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>53.709806999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>27.953389000000001</v>
       </c>
       <c r="L21" t="s">
@@ -14123,7 +14123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -14150,10 +14150,10 @@
       <c r="G22" t="s">
         <v>51</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>50.503886999999999</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>4.4699359999999997</v>
       </c>
       <c r="L22" t="s">
@@ -14163,7 +14163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -14193,10 +14193,10 @@
       <c r="I23" t="s">
         <v>638</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>17.189876999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>-88.497649999999993</v>
       </c>
       <c r="L23" t="s">
@@ -14206,7 +14206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -14239,10 +14239,10 @@
       <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>9.3076899999999991</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>2.3158340000000002</v>
       </c>
       <c r="L24" t="s">
@@ -14252,7 +14252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>507</v>
       </c>
@@ -14282,10 +14282,10 @@
       <c r="I25" t="s">
         <v>579</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>32.321384000000002</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>-64.757369999999995</v>
       </c>
       <c r="L25" t="s">
@@ -14295,7 +14295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -14324,11 +14324,11 @@
       <c r="I26" t="s">
         <v>61</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>27.514161999999999</v>
       </c>
-      <c r="K26">
-        <v>80.433600999999996</v>
+      <c r="K26" s="2">
+        <v>90.433600999999996</v>
       </c>
       <c r="L26" t="s">
         <v>59</v>
@@ -14337,7 +14337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -14367,10 +14367,10 @@
       <c r="H27" t="s">
         <v>635</v>
       </c>
-      <c r="J27">
-        <v>-16.280154</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="2">
+        <v>-16.290154000000001</v>
+      </c>
+      <c r="K27" s="2">
         <v>-63.588653000000001</v>
       </c>
       <c r="L27" t="s">
@@ -14380,7 +14380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -14409,11 +14409,11 @@
       <c r="I28" t="s">
         <v>66</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>43.915886</v>
       </c>
-      <c r="K28">
-        <v>17.678076000000001</v>
+      <c r="K28" s="2">
+        <v>17.679075999999998</v>
       </c>
       <c r="L28" t="s">
         <v>64</v>
@@ -14422,7 +14422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -14452,10 +14452,10 @@
       <c r="H29" t="s">
         <v>69</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>-22.328474</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>24.684866</v>
       </c>
       <c r="L29" t="s">
@@ -14465,7 +14465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -14492,10 +14492,10 @@
       <c r="G30" t="s">
         <v>71</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>-14.235004</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>-51.925280000000001</v>
       </c>
       <c r="L30" t="s">
@@ -14505,7 +14505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -14532,10 +14532,10 @@
       <c r="G31" t="s">
         <v>510</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>-6.3431940000000004</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>71.876519000000002</v>
       </c>
       <c r="L31" t="s">
@@ -14545,7 +14545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>511</v>
       </c>
@@ -14575,10 +14575,10 @@
       <c r="I32" t="s">
         <v>580</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>18.420694999999998</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>-64.639967999999996</v>
       </c>
       <c r="L32" t="s">
@@ -14588,7 +14588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -14615,10 +14615,10 @@
       <c r="G33" t="s">
         <v>73</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>4.5352769999999998</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>114.72766900000001</v>
       </c>
       <c r="L33" t="s">
@@ -14628,7 +14628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -14658,10 +14658,10 @@
       <c r="I34" t="s">
         <v>76</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>42.733882999999999</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>25.48583</v>
       </c>
       <c r="L34" t="s">
@@ -14671,7 +14671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -14698,10 +14698,10 @@
       <c r="G35" t="s">
         <v>78</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>12.238333000000001</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>-1.561593</v>
       </c>
       <c r="L35" t="s">
@@ -14711,7 +14711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -14738,10 +14738,10 @@
       <c r="G36" t="s">
         <v>80</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>-3.3730560000000001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>29.918886000000001</v>
       </c>
       <c r="L36" t="s">
@@ -14751,7 +14751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>562</v>
       </c>
@@ -14784,10 +14784,10 @@
       <c r="I37" t="s">
         <v>117</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>7.5399890000000003</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>-5.5470800000000002</v>
       </c>
       <c r="L37" t="s">
@@ -14797,7 +14797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -14830,11 +14830,11 @@
       <c r="I38" t="s">
         <v>83</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>12.565678999999999</v>
       </c>
-      <c r="K38">
-        <v>104.980963</v>
+      <c r="K38" s="2">
+        <v>104.99096299999999</v>
       </c>
       <c r="L38" t="s">
         <v>81</v>
@@ -14843,7 +14843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -14870,10 +14870,10 @@
       <c r="G39" t="s">
         <v>85</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>7.3697220000000003</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>12.354722000000001</v>
       </c>
       <c r="L39" t="s">
@@ -14883,7 +14883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -14911,10 +14911,10 @@
       <c r="I40" t="s">
         <v>88</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>56.130366000000002</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>-106.346771</v>
       </c>
       <c r="L40" t="s">
@@ -14924,7 +14924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -14954,10 +14954,10 @@
       <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>16.002082000000001</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>-24.013197000000002</v>
       </c>
       <c r="L41" t="s">
@@ -14967,7 +14967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>513</v>
       </c>
@@ -14997,10 +14997,10 @@
       <c r="I42" t="s">
         <v>581</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>19.513469000000001</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>-80.566956000000005</v>
       </c>
       <c r="L42" t="s">
@@ -15010,7 +15010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -15037,10 +15037,10 @@
       <c r="G43" t="s">
         <v>92</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>6.6111110000000002</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>20.939444000000002</v>
       </c>
       <c r="L43" t="s">
@@ -15050,7 +15050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -15077,10 +15077,10 @@
       <c r="G44" t="s">
         <v>94</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>15.454166000000001</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>18.732206999999999</v>
       </c>
       <c r="L44" t="s">
@@ -15090,7 +15090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -15119,10 +15119,10 @@
       <c r="I45" t="s">
         <v>97</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>-35.675147000000003</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>-71.542968999999999</v>
       </c>
       <c r="L45" t="s">
@@ -15132,7 +15132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -15161,10 +15161,10 @@
       <c r="I46" t="s">
         <v>99</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>35.861660000000001</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>104.195397</v>
       </c>
       <c r="L46" t="s">
@@ -15174,7 +15174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>475</v>
       </c>
@@ -15201,17 +15201,17 @@
       <c r="G47" t="s">
         <v>476</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>10.283300000000001</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>-109.2167</v>
       </c>
       <c r="M47">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -15241,10 +15241,10 @@
       <c r="I48" t="s">
         <v>102</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>4.5708679999999999</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>-74.297332999999995</v>
       </c>
       <c r="L48" t="s">
@@ -15254,7 +15254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -15284,10 +15284,10 @@
       <c r="H49" t="s">
         <v>105</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>-11.875000999999999</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="2">
         <v>43.872219000000001</v>
       </c>
       <c r="L49" t="s">
@@ -15297,7 +15297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>497</v>
       </c>
@@ -15327,10 +15327,10 @@
       <c r="H50" t="s">
         <v>134</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>-21.236736000000001</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>-159.777671</v>
       </c>
       <c r="L50" t="s">
@@ -15340,7 +15340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -15369,10 +15369,10 @@
       <c r="I51" t="s">
         <v>114</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>9.7489170000000005</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="2">
         <v>-83.753428</v>
       </c>
       <c r="L51" t="s">
@@ -15382,7 +15382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -15412,10 +15412,10 @@
       <c r="I52" t="s">
         <v>120</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>45.1</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="2">
         <v>15.2</v>
       </c>
       <c r="L52" t="s">
@@ -15425,7 +15425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -15453,10 +15453,10 @@
       <c r="I53" t="s">
         <v>123</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>21.521757000000001</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="2">
         <v>-77.781166999999996</v>
       </c>
       <c r="L53" t="s">
@@ -15496,17 +15496,17 @@
       <c r="H54" t="s">
         <v>496</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="11">
         <v>12.169600000000001</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="11">
         <v>-68.989999999999995</v>
       </c>
       <c r="M54">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -15536,10 +15536,10 @@
       <c r="I55" t="s">
         <v>126</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>35.126412999999999</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <v>33.429859</v>
       </c>
       <c r="L55" t="s">
@@ -15549,7 +15549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -15578,10 +15578,10 @@
       <c r="I56" t="s">
         <v>129</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>49.817492000000001</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="2">
         <v>15.472962000000001</v>
       </c>
       <c r="L56" t="s">
@@ -15591,7 +15591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -15621,10 +15621,10 @@
       <c r="I57" t="s">
         <v>111</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <v>-4.0383329999999997</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="2">
         <v>21.758664</v>
       </c>
       <c r="L57" t="s">
@@ -15634,7 +15634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -15660,10 +15660,10 @@
       <c r="G58" t="s">
         <v>131</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <v>56.263919999999999</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>9.5017849999999999</v>
       </c>
       <c r="L58" t="s">
@@ -15673,7 +15673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -15706,11 +15706,11 @@
       <c r="I59" t="s">
         <v>135</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>11.825138000000001</v>
       </c>
-      <c r="K59">
-        <v>42.580275</v>
+      <c r="K59" s="2">
+        <v>42.590274999999998</v>
       </c>
       <c r="L59" t="s">
         <v>132</v>
@@ -15719,7 +15719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -15749,10 +15749,10 @@
       <c r="H60" t="s">
         <v>138</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <v>15.414999</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="2">
         <v>-61.370975999999999</v>
       </c>
       <c r="L60" t="s">
@@ -15762,7 +15762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -15791,10 +15791,10 @@
       <c r="I61" t="s">
         <v>141</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>18.735693000000001</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="2">
         <v>-70.162650999999997</v>
       </c>
       <c r="L61" t="s">
@@ -15804,7 +15804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -15834,17 +15834,17 @@
       <c r="H62" t="s">
         <v>16</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>-8.8742169999999998</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>125.72753899999999</v>
       </c>
       <c r="M62">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -15871,10 +15871,10 @@
       <c r="G63" t="s">
         <v>145</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>-1.8312390000000001</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="2">
         <v>-78.183406000000005</v>
       </c>
       <c r="L63" t="s">
@@ -15884,7 +15884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -15914,10 +15914,10 @@
       <c r="I64" t="s">
         <v>596</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <v>26.820553</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <v>30.802498</v>
       </c>
       <c r="L64" t="s">
@@ -15927,7 +15927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -15957,10 +15957,10 @@
       <c r="H65" t="s">
         <v>635</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>13.794185000000001</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <v>-88.896529999999998</v>
       </c>
       <c r="L65" t="s">
@@ -15970,7 +15970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -15997,10 +15997,10 @@
       <c r="G66" t="s">
         <v>150</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>1.650801</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="2">
         <v>10.267894999999999</v>
       </c>
       <c r="L66" t="s">
@@ -16010,7 +16010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -16037,10 +16037,10 @@
       <c r="G67" t="s">
         <v>152</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <v>15.179384000000001</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="2">
         <v>39.782333999999999</v>
       </c>
       <c r="L67" t="s">
@@ -16050,7 +16050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -16077,10 +16077,10 @@
       <c r="G68" t="s">
         <v>154</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>58.595272000000001</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="2">
         <v>25.013607</v>
       </c>
       <c r="L68" t="s">
@@ -16090,7 +16090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -16117,10 +16117,10 @@
       <c r="G69" t="s">
         <v>156</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>-26.522503</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>31.465865999999998</v>
       </c>
       <c r="L69" t="s">
@@ -16130,7 +16130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -16163,10 +16163,10 @@
       <c r="I70" t="s">
         <v>640</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>9.1449999999999996</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="2">
         <v>40.489673000000003</v>
       </c>
       <c r="L70" t="s">
@@ -16176,7 +16176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>515</v>
       </c>
@@ -16205,10 +16205,10 @@
       <c r="I71" t="s">
         <v>588</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>-51.796253</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="2">
         <v>-59.523612999999997</v>
       </c>
       <c r="L71" t="s">
@@ -16218,7 +16218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>471</v>
       </c>
@@ -16244,10 +16244,10 @@
       <c r="G72" t="s">
         <v>472</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <v>61.892634999999999</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="2">
         <v>-6.9118060000000003</v>
       </c>
       <c r="L72" t="s">
@@ -16257,7 +16257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -16287,10 +16287,10 @@
       <c r="H73" t="s">
         <v>163</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <v>-16.578192999999999</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="2">
         <v>179.414413</v>
       </c>
       <c r="L73" t="s">
@@ -16300,7 +16300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -16326,10 +16326,10 @@
       <c r="G74" t="s">
         <v>165</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>61.924109999999999</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="2">
         <v>25.748151</v>
       </c>
       <c r="L74" t="s">
@@ -16339,7 +16339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -16368,10 +16368,10 @@
       <c r="I75" t="s">
         <v>168</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>46.227637999999999</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <v>2.213749</v>
       </c>
       <c r="L75" t="s">
@@ -16381,7 +16381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>477</v>
       </c>
@@ -16411,10 +16411,10 @@
       <c r="I76" t="s">
         <v>589</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>3.9338890000000002</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="2">
         <v>-53.125782000000001</v>
       </c>
       <c r="L76" t="s">
@@ -16424,7 +16424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>479</v>
       </c>
@@ -16451,10 +16451,10 @@
       <c r="G77" t="s">
         <v>480</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>-17.679742000000001</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="2">
         <v>-149.40684300000001</v>
       </c>
       <c r="L77" t="s">
@@ -16464,7 +16464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -16497,10 +16497,10 @@
       <c r="I78" t="s">
         <v>172</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>-0.80368899999999999</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="2">
         <v>11.609444</v>
       </c>
       <c r="L78" t="s">
@@ -16510,7 +16510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -16540,10 +16540,10 @@
       <c r="H79" t="s">
         <v>116</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>13.443182</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="2">
         <v>-15.310138999999999</v>
       </c>
       <c r="L79" t="s">
@@ -16553,7 +16553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>175</v>
       </c>
@@ -16586,10 +16586,10 @@
       <c r="I80" t="s">
         <v>641</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>42.315407</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="2">
         <v>43.356892000000002</v>
       </c>
       <c r="L80" t="s">
@@ -16599,7 +16599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -16629,10 +16629,10 @@
       <c r="I81" t="s">
         <v>180</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>51.165691000000002</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="2">
         <v>10.451525999999999</v>
       </c>
       <c r="L81" t="s">
@@ -16642,7 +16642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -16669,10 +16669,10 @@
       <c r="G82" t="s">
         <v>182</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <v>7.9465269999999997</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="2">
         <v>-1.0231939999999999</v>
       </c>
       <c r="L82" t="s">
@@ -16682,7 +16682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>517</v>
       </c>
@@ -16712,10 +16712,10 @@
       <c r="I83" t="s">
         <v>582</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>36.137740999999998</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="2">
         <v>-5.3453739999999996</v>
       </c>
       <c r="L83" t="s">
@@ -16725,7 +16725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -16751,10 +16751,10 @@
       <c r="G84" t="s">
         <v>184</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>39.074207999999999</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="2">
         <v>21.824311999999999</v>
       </c>
       <c r="L84" t="s">
@@ -16764,7 +16764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>473</v>
       </c>
@@ -16790,10 +16790,10 @@
       <c r="G85" t="s">
         <v>474</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>71.706935999999999</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="2">
         <v>-42.604303000000002</v>
       </c>
       <c r="L85" t="s">
@@ -16803,7 +16803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>185</v>
       </c>
@@ -16833,10 +16833,10 @@
       <c r="H86" t="s">
         <v>116</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>12.262776000000001</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="2">
         <v>-61.604171000000001</v>
       </c>
       <c r="L86" t="s">
@@ -16846,7 +16846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>481</v>
       </c>
@@ -16873,10 +16873,10 @@
       <c r="G87" t="s">
         <v>478</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="2">
         <v>16.995971000000001</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="2">
         <v>-62.067641000000002</v>
       </c>
       <c r="L87" t="s">
@@ -16886,7 +16886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -16912,10 +16912,10 @@
       <c r="G88" t="s">
         <v>532</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="2">
         <v>13.444304000000001</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="2">
         <v>144.79373100000001</v>
       </c>
       <c r="L88" t="s">
@@ -16925,7 +16925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -16955,11 +16955,11 @@
       <c r="I89" t="s">
         <v>189</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="2">
         <v>15.783471</v>
       </c>
-      <c r="K89">
-        <v>-80.230759000000006</v>
+      <c r="K89" s="2">
+        <v>-90.230759000000006</v>
       </c>
       <c r="L89" t="s">
         <v>187</v>
@@ -16968,7 +16968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -16998,10 +16998,10 @@
       <c r="H90" t="s">
         <v>635</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>9.9455869999999997</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <v>-9.6966450000000002</v>
       </c>
       <c r="L90" t="s">
@@ -17011,7 +17011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>563</v>
       </c>
@@ -17041,10 +17041,10 @@
       <c r="H91" t="s">
         <v>635</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="2">
         <v>11.803749</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="2">
         <v>-15.180413</v>
       </c>
       <c r="L91" t="s">
@@ -17054,7 +17054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -17084,10 +17084,10 @@
       <c r="I92" t="s">
         <v>196</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="2">
         <v>4.8604159999999998</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="2">
         <v>-58.93018</v>
       </c>
       <c r="L92" t="s">
@@ -17097,7 +17097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -17127,10 +17127,10 @@
       <c r="H93" t="s">
         <v>116</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>18.971187</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="2">
         <v>-72.285214999999994</v>
       </c>
       <c r="L93" t="s">
@@ -17140,7 +17140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -17170,11 +17170,11 @@
       <c r="I94" t="s">
         <v>189</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="2">
         <v>15.199999</v>
       </c>
-      <c r="K94">
-        <v>-86.241804999999999</v>
+      <c r="K94" s="2">
+        <v>-86.241905000000003</v>
       </c>
       <c r="L94" t="s">
         <v>199</v>
@@ -17183,7 +17183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>467</v>
       </c>
@@ -17213,10 +17213,10 @@
       <c r="H95" t="s">
         <v>69</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="2">
         <v>22.396428</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="2">
         <v>114.109497</v>
       </c>
       <c r="L95" t="s">
@@ -17226,7 +17226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -17252,10 +17252,10 @@
       <c r="G96" t="s">
         <v>202</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="2">
         <v>47.162494000000002</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="2">
         <v>19.503304</v>
       </c>
       <c r="L96" t="s">
@@ -17265,7 +17265,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -17291,10 +17291,10 @@
       <c r="G97" t="s">
         <v>204</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>64.963050999999993</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="2">
         <v>-19.020835000000002</v>
       </c>
       <c r="L97" t="s">
@@ -17304,7 +17304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>546</v>
       </c>
@@ -17327,10 +17327,10 @@
       <c r="F98">
         <v>100</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>20.593684</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="2">
         <v>78.962879999999998</v>
       </c>
       <c r="L98" t="s">
@@ -17340,7 +17340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -17373,10 +17373,10 @@
       <c r="I99" t="s">
         <v>207</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>-0.78927499999999995</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="2">
         <v>113.92132700000001</v>
       </c>
       <c r="L99" t="s">
@@ -17386,7 +17386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -17416,10 +17416,10 @@
       <c r="H100" t="s">
         <v>16</v>
       </c>
-      <c r="J100">
-        <v>32.427807999999999</v>
-      </c>
-      <c r="K100">
+      <c r="J100" s="2">
+        <v>32.427908000000002</v>
+      </c>
+      <c r="K100" s="2">
         <v>53.688046</v>
       </c>
       <c r="L100" t="s">
@@ -17429,7 +17429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>210</v>
       </c>
@@ -17456,10 +17456,10 @@
       <c r="G101" t="s">
         <v>211</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>33.223191</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="2">
         <v>43.679290999999999</v>
       </c>
       <c r="L101" t="s">
@@ -17469,7 +17469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -17499,10 +17499,10 @@
       <c r="I102" t="s">
         <v>214</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="2">
         <v>53.412909999999997</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="2">
         <v>-8.2438900000000004</v>
       </c>
       <c r="L102" t="s">
@@ -17512,7 +17512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>215</v>
       </c>
@@ -17542,10 +17542,10 @@
       <c r="I103" t="s">
         <v>573</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="2">
         <v>31.046050999999999</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="2">
         <v>34.851612000000003</v>
       </c>
       <c r="L103" t="s">
@@ -17555,7 +17555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>217</v>
       </c>
@@ -17581,10 +17581,10 @@
       <c r="G104" t="s">
         <v>218</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="2">
         <v>41.871940000000002</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="2">
         <v>12.56738</v>
       </c>
       <c r="L104" t="s">
@@ -17594,7 +17594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -17621,10 +17621,10 @@
       <c r="G105" t="s">
         <v>220</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="2">
         <v>18.109580999999999</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="2">
         <v>-77.297507999999993</v>
       </c>
       <c r="L105" t="s">
@@ -17634,7 +17634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>221</v>
       </c>
@@ -17663,10 +17663,10 @@
       <c r="I106" t="s">
         <v>223</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="2">
         <v>36.204824000000002</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="2">
         <v>138.25292400000001</v>
       </c>
       <c r="L106" t="s">
@@ -17676,7 +17676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -17706,10 +17706,10 @@
       <c r="H107" t="s">
         <v>16</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="2">
         <v>30.585163999999999</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="2">
         <v>36.238413999999999</v>
       </c>
       <c r="L107" t="s">
@@ -17719,7 +17719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -17749,10 +17749,10 @@
       <c r="I108" t="s">
         <v>591</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="2">
         <v>48.019573000000001</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="2">
         <v>66.923683999999994</v>
       </c>
       <c r="L108" t="s">
@@ -17762,7 +17762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -17795,11 +17795,11 @@
       <c r="I109" t="s">
         <v>642</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="2">
         <v>-2.3559E-2</v>
       </c>
-      <c r="K109">
-        <v>37.806193</v>
+      <c r="K109" s="2">
+        <v>37.906193000000002</v>
       </c>
       <c r="L109" t="s">
         <v>227</v>
@@ -17808,7 +17808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>230</v>
       </c>
@@ -17835,10 +17835,10 @@
       <c r="G110" t="s">
         <v>231</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="2">
         <v>-3.3704170000000002</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="2">
         <v>-168.734039</v>
       </c>
       <c r="L110" t="s">
@@ -17848,7 +17848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>236</v>
       </c>
@@ -17875,10 +17875,10 @@
       <c r="G111" t="s">
         <v>237</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="2">
         <v>29.31166</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="2">
         <v>47.481766</v>
       </c>
       <c r="L111" t="s">
@@ -17888,7 +17888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>238</v>
       </c>
@@ -17918,10 +17918,10 @@
       <c r="I112" t="s">
         <v>240</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="2">
         <v>41.20438</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="2">
         <v>74.766098</v>
       </c>
       <c r="L112" t="s">
@@ -17931,7 +17931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -17964,10 +17964,10 @@
       <c r="I113" t="s">
         <v>243</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="2">
         <v>19.856269999999999</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="2">
         <v>102.495496</v>
       </c>
       <c r="L113" t="s">
@@ -17977,7 +17977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -18003,10 +18003,10 @@
       <c r="G114" t="s">
         <v>245</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="2">
         <v>56.879635</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="2">
         <v>24.603189</v>
       </c>
       <c r="L114" t="s">
@@ -18016,7 +18016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -18046,10 +18046,10 @@
       <c r="I115" t="s">
         <v>248</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="2">
         <v>33.854720999999998</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="2">
         <v>35.862285</v>
       </c>
       <c r="L115" t="s">
@@ -18059,7 +18059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>249</v>
       </c>
@@ -18089,10 +18089,10 @@
       <c r="H116" t="s">
         <v>16</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="2">
         <v>-29.609988000000001</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="2">
         <v>28.233608</v>
       </c>
       <c r="L116" t="s">
@@ -18102,7 +18102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>251</v>
       </c>
@@ -18129,10 +18129,10 @@
       <c r="G117" t="s">
         <v>252</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="2">
         <v>6.4280549999999996</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="2">
         <v>-9.4294989999999999</v>
       </c>
       <c r="L117" t="s">
@@ -18142,7 +18142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>253</v>
       </c>
@@ -18169,10 +18169,10 @@
       <c r="G118" t="s">
         <v>254</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="2">
         <v>26.335100000000001</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="2">
         <v>17.228331000000001</v>
       </c>
       <c r="L118" t="s">
@@ -18182,7 +18182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>255</v>
       </c>
@@ -18208,10 +18208,10 @@
       <c r="G119" t="s">
         <v>256</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="2">
         <v>47.165999999999997</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="2">
         <v>9.5553729999999995</v>
       </c>
       <c r="L119" t="s">
@@ -18221,7 +18221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>257</v>
       </c>
@@ -18247,10 +18247,10 @@
       <c r="G120" t="s">
         <v>258</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="2">
         <v>55.169438</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="2">
         <v>23.881274999999999</v>
       </c>
       <c r="L120" t="s">
@@ -18260,7 +18260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -18286,10 +18286,10 @@
       <c r="G121" t="s">
         <v>260</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="2">
         <v>49.815272999999998</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="2">
         <v>6.1295830000000002</v>
       </c>
       <c r="L121" t="s">
@@ -18299,7 +18299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>469</v>
       </c>
@@ -18329,10 +18329,10 @@
       <c r="H122" t="s">
         <v>16</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="2">
         <v>22.198744999999999</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="2">
         <v>113.543873</v>
       </c>
       <c r="L122" t="s">
@@ -18342,7 +18342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>261</v>
       </c>
@@ -18372,10 +18372,10 @@
       <c r="H123" t="s">
         <v>16</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="2">
         <v>-18.766946999999998</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="2">
         <v>46.869107</v>
       </c>
       <c r="L123" t="s">
@@ -18385,7 +18385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>263</v>
       </c>
@@ -18415,10 +18415,10 @@
       <c r="H124" t="s">
         <v>635</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="2">
         <v>-13.254308</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="2">
         <v>34.301524999999998</v>
       </c>
       <c r="L124" t="s">
@@ -18428,7 +18428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -18461,10 +18461,10 @@
       <c r="I125" t="s">
         <v>267</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="2">
         <v>4.2104840000000001</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="2">
         <v>101.97576599999999</v>
       </c>
       <c r="L125" t="s">
@@ -18474,7 +18474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>268</v>
       </c>
@@ -18504,10 +18504,10 @@
       <c r="H126" t="s">
         <v>635</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="2">
         <v>3.2027779999999999</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="2">
         <v>73.220680000000002</v>
       </c>
       <c r="L126" t="s">
@@ -18517,7 +18517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>270</v>
       </c>
@@ -18544,10 +18544,10 @@
       <c r="G127" t="s">
         <v>271</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="2">
         <v>17.570692000000001</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="2">
         <v>-3.9961660000000001</v>
       </c>
       <c r="L127" t="s">
@@ -18557,7 +18557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>272</v>
       </c>
@@ -18583,10 +18583,10 @@
       <c r="G128" t="s">
         <v>273</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="2">
         <v>35.937496000000003</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="2">
         <v>14.375416</v>
       </c>
       <c r="L128" t="s">
@@ -18596,7 +18596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>274</v>
       </c>
@@ -18626,10 +18626,10 @@
       <c r="H129" t="s">
         <v>635</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="2">
         <v>7.1314739999999999</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="2">
         <v>171.18447800000001</v>
       </c>
       <c r="L129" t="s">
@@ -18639,7 +18639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>482</v>
       </c>
@@ -18666,10 +18666,10 @@
       <c r="G130" t="s">
         <v>478</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="2">
         <v>14.641527999999999</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="2">
         <v>-61.024174000000002</v>
       </c>
       <c r="L130" t="s">
@@ -18679,7 +18679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>276</v>
       </c>
@@ -18706,10 +18706,10 @@
       <c r="G131" t="s">
         <v>277</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="2">
         <v>21.00789</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="2">
         <v>-10.940835</v>
       </c>
       <c r="L131" t="s">
@@ -18719,7 +18719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>278</v>
       </c>
@@ -18749,10 +18749,10 @@
       <c r="H132" t="s">
         <v>635</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="2">
         <v>-20.348403999999999</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="2">
         <v>57.552152</v>
       </c>
       <c r="L132" t="s">
@@ -18762,7 +18762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>485</v>
       </c>
@@ -18789,10 +18789,10 @@
       <c r="G133" t="s">
         <v>486</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="2">
         <v>-12.827500000000001</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="2">
         <v>45.166243999999999</v>
       </c>
       <c r="L133" t="s">
@@ -18802,7 +18802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -18831,10 +18831,10 @@
       <c r="I134" t="s">
         <v>282</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="2">
         <v>23.634501</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="2">
         <v>-102.552784</v>
       </c>
       <c r="L134" t="s">
@@ -18844,7 +18844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>283</v>
       </c>
@@ -18874,10 +18874,10 @@
       <c r="H135" t="s">
         <v>16</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="2">
         <v>7.425554</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="2">
         <v>150.55081200000001</v>
       </c>
       <c r="L135" t="s">
@@ -18887,7 +18887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>285</v>
       </c>
@@ -18917,10 +18917,10 @@
       <c r="I136" t="s">
         <v>643</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="2">
         <v>47.411631</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="2">
         <v>28.369885</v>
       </c>
       <c r="L136" t="s">
@@ -18930,7 +18930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>288</v>
       </c>
@@ -18956,10 +18956,10 @@
       <c r="G137" t="s">
         <v>289</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="2">
         <v>43.750298000000001</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="2">
         <v>7.4128410000000002</v>
       </c>
       <c r="L137" t="s">
@@ -18969,7 +18969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>290</v>
       </c>
@@ -18998,10 +18998,10 @@
       <c r="I138" t="s">
         <v>575</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="2">
         <v>46.862496</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="2">
         <v>103.846656</v>
       </c>
       <c r="L138" t="s">
@@ -19011,7 +19011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>292</v>
       </c>
@@ -19041,10 +19041,10 @@
       <c r="I139" t="s">
         <v>293</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="2">
         <v>42.708677999999999</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="2">
         <v>19.374389999999998</v>
       </c>
       <c r="L139" t="s">
@@ -19054,7 +19054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>519</v>
       </c>
@@ -19084,10 +19084,10 @@
       <c r="I140" t="s">
         <v>583</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="2">
         <v>16.742498000000001</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="2">
         <v>-62.187365999999997</v>
       </c>
       <c r="L140" t="s">
@@ -19097,7 +19097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -19126,10 +19126,10 @@
       <c r="I141" t="s">
         <v>599</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="2">
         <v>31.791702000000001</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="2">
         <v>-7.0926200000000001</v>
       </c>
       <c r="L141" t="s">
@@ -19139,7 +19139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -19169,10 +19169,10 @@
       <c r="H142" t="s">
         <v>297</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="2">
         <v>-18.665694999999999</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="2">
         <v>35.529561999999999</v>
       </c>
       <c r="L142" t="s">
@@ -19182,7 +19182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -19215,10 +19215,10 @@
       <c r="I143" t="s">
         <v>301</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="2">
         <v>21.913965000000001</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="2">
         <v>95.956222999999994</v>
       </c>
       <c r="L143" t="s">
@@ -19228,7 +19228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>302</v>
       </c>
@@ -19255,11 +19255,11 @@
       <c r="G144" t="s">
         <v>303</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="2">
         <v>-22.957640000000001</v>
       </c>
-      <c r="K144">
-        <v>18.480409999999999</v>
+      <c r="K144" s="2">
+        <v>18.490410000000001</v>
       </c>
       <c r="L144" t="s">
         <v>302</v>
@@ -19268,7 +19268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>304</v>
       </c>
@@ -19295,10 +19295,10 @@
       <c r="G145" t="s">
         <v>305</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="2">
         <v>-0.52277799999999996</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="2">
         <v>166.93150299999999</v>
       </c>
       <c r="L145" t="s">
@@ -19308,7 +19308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>306</v>
       </c>
@@ -19337,10 +19337,10 @@
       <c r="I146" t="s">
         <v>308</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="2">
         <v>28.394856999999998</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="2">
         <v>84.124008000000003</v>
       </c>
       <c r="L146" t="s">
@@ -19350,7 +19350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>309</v>
       </c>
@@ -19376,10 +19376,10 @@
       <c r="G147" t="s">
         <v>310</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="2">
         <v>52.132632999999998</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="2">
         <v>5.2912660000000002</v>
       </c>
       <c r="L147" t="s">
@@ -19389,7 +19389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>487</v>
       </c>
@@ -19416,10 +19416,10 @@
       <c r="G148" t="s">
         <v>488</v>
       </c>
-      <c r="J148">
-        <v>-20.804304999999999</v>
-      </c>
-      <c r="K148">
+      <c r="J148" s="2">
+        <v>-20.904305000000001</v>
+      </c>
+      <c r="K148" s="2">
         <v>165.618042</v>
       </c>
       <c r="L148" t="s">
@@ -19429,7 +19429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>311</v>
       </c>
@@ -19459,10 +19459,10 @@
       <c r="I149" t="s">
         <v>313</v>
       </c>
-      <c r="J149">
-        <v>-40.800556999999998</v>
-      </c>
-      <c r="K149">
+      <c r="J149" s="2">
+        <v>-40.900556999999999</v>
+      </c>
+      <c r="K149" s="2">
         <v>174.88597100000001</v>
       </c>
       <c r="L149" t="s">
@@ -19472,7 +19472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>314</v>
       </c>
@@ -19502,10 +19502,10 @@
       <c r="I150" t="s">
         <v>316</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="2">
         <v>12.865416</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="2">
         <v>-85.207228999999998</v>
       </c>
       <c r="L150" t="s">
@@ -19515,7 +19515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>317</v>
       </c>
@@ -19542,10 +19542,10 @@
       <c r="G151" t="s">
         <v>318</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="2">
         <v>17.607789</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="2">
         <v>8.0816660000000002</v>
       </c>
       <c r="L151" t="s">
@@ -19555,7 +19555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>319</v>
       </c>
@@ -19582,10 +19582,10 @@
       <c r="G152" t="s">
         <v>320</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="2">
         <v>9.0819989999999997</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="2">
         <v>8.6752769999999995</v>
       </c>
       <c r="L152" t="s">
@@ -19595,7 +19595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>499</v>
       </c>
@@ -19625,10 +19625,10 @@
       <c r="H153" t="s">
         <v>16</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="2">
         <v>-19.054445000000001</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="2">
         <v>-169.867233</v>
       </c>
       <c r="L153" t="s">
@@ -19638,7 +19638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -19665,11 +19665,11 @@
       <c r="G154" t="s">
         <v>233</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="2">
         <v>40.339852</v>
       </c>
-      <c r="K154">
-        <v>127.58093</v>
+      <c r="K154" s="2">
+        <v>127.510093</v>
       </c>
       <c r="L154" t="s">
         <v>232</v>
@@ -19678,7 +19678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>564</v>
       </c>
@@ -19705,10 +19705,10 @@
       <c r="I155" t="s">
         <v>322</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="2">
         <v>41.608635</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="2">
         <v>21.745274999999999</v>
       </c>
       <c r="L155" t="s">
@@ -19718,7 +19718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>648</v>
       </c>
@@ -19742,14 +19742,14 @@
         <f>'table-1'!F156</f>
         <v>80</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="2">
         <v>35.247999999999998</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="2">
         <v>33.657699999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>533</v>
       </c>
@@ -19779,17 +19779,17 @@
       <c r="H157" t="s">
         <v>649</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="2">
         <v>15.097899999999999</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="2">
         <v>145.6739</v>
       </c>
       <c r="M157">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -19815,10 +19815,10 @@
       <c r="G158" t="s">
         <v>324</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="2">
         <v>60.472023999999998</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="2">
         <v>8.4689460000000008</v>
       </c>
       <c r="L158" t="s">
@@ -19828,7 +19828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -19861,10 +19861,10 @@
       <c r="I159" t="s">
         <v>569</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="2">
         <v>21.512582999999999</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="2">
         <v>55.923254999999997</v>
       </c>
       <c r="L159" t="s">
@@ -19874,7 +19874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -19904,10 +19904,10 @@
       <c r="I160" t="s">
         <v>328</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="2">
         <v>30.375321</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="2">
         <v>69.345116000000004</v>
       </c>
       <c r="L160" t="s">
@@ -19917,7 +19917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>329</v>
       </c>
@@ -19947,10 +19947,10 @@
       <c r="H161" t="s">
         <v>16</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="2">
         <v>7.5149800000000004</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="2">
         <v>134.58251999999999</v>
       </c>
       <c r="L161" t="s">
@@ -19960,7 +19960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>331</v>
       </c>
@@ -19993,10 +19993,10 @@
       <c r="I162" t="s">
         <v>566</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="2">
         <v>8.5379810000000003</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="2">
         <v>-80.782127000000003</v>
       </c>
       <c r="L162" t="s">
@@ -20006,7 +20006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -20033,10 +20033,10 @@
       <c r="G163" t="s">
         <v>334</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="2">
         <v>-6.3149930000000003</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="2">
         <v>143.95554999999999</v>
       </c>
       <c r="L163" t="s">
@@ -20046,7 +20046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -20073,10 +20073,10 @@
       <c r="G164" t="s">
         <v>336</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="2">
         <v>-23.442502999999999</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="2">
         <v>-58.443832</v>
       </c>
       <c r="L164" t="s">
@@ -20086,7 +20086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -20115,10 +20115,10 @@
       <c r="I165" t="s">
         <v>339</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="2">
         <v>-9.1899669999999993</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="2">
         <v>-75.015152</v>
       </c>
       <c r="L165" t="s">
@@ -20128,7 +20128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>340</v>
       </c>
@@ -20156,10 +20156,10 @@
       <c r="I166" t="s">
         <v>342</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="2">
         <v>12.879721</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="2">
         <v>121.774017</v>
       </c>
       <c r="L166" t="s">
@@ -20169,7 +20169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>520</v>
       </c>
@@ -20199,10 +20199,10 @@
       <c r="I167" t="s">
         <v>584</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="2">
         <v>-24.703614999999999</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="2">
         <v>-127.439308</v>
       </c>
       <c r="L167" t="s">
@@ -20212,7 +20212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>343</v>
       </c>
@@ -20238,10 +20238,10 @@
       <c r="G168" t="s">
         <v>344</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="2">
         <v>51.919438</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="2">
         <v>19.145136000000001</v>
       </c>
       <c r="L168" t="s">
@@ -20251,7 +20251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>345</v>
       </c>
@@ -20277,10 +20277,10 @@
       <c r="G169" t="s">
         <v>346</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="2">
         <v>39.399872000000002</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="2">
         <v>-8.2244539999999997</v>
       </c>
       <c r="L169" t="s">
@@ -20290,7 +20290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>535</v>
       </c>
@@ -20319,11 +20319,11 @@
       <c r="H170" t="s">
         <v>537</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="2">
         <v>8.2208330000000007</v>
       </c>
-      <c r="K170">
-        <v>-66.580149000000006</v>
+      <c r="K170" s="2">
+        <v>-66.590148999999997</v>
       </c>
       <c r="L170" t="s">
         <v>535</v>
@@ -20332,7 +20332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>347</v>
       </c>
@@ -20362,10 +20362,10 @@
       <c r="H171" t="s">
         <v>16</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="2">
         <v>25.354825999999999</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="2">
         <v>51.183883999999999</v>
       </c>
       <c r="L171" t="s">
@@ -20375,7 +20375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>559</v>
       </c>
@@ -20405,10 +20405,10 @@
       <c r="H172" t="s">
         <v>490</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="2">
         <v>-21.115141000000001</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="2">
         <v>55.536383999999998</v>
       </c>
       <c r="L172" t="s">
@@ -20418,7 +20418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>106</v>
       </c>
@@ -20448,10 +20448,10 @@
       <c r="I173" t="s">
         <v>108</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="2">
         <v>-0.228021</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="2">
         <v>15.827659000000001</v>
       </c>
       <c r="L173" t="s">
@@ -20461,7 +20461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>349</v>
       </c>
@@ -20491,10 +20491,10 @@
       <c r="I174" t="s">
         <v>351</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="2">
         <v>45.943161000000003</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="2">
         <v>24.966760000000001</v>
       </c>
       <c r="L174" t="s">
@@ -20504,7 +20504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>352</v>
       </c>
@@ -20534,10 +20534,10 @@
       <c r="I175" t="s">
         <v>571</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="2">
         <v>61.524009999999997</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="2">
         <v>105.31875599999999</v>
       </c>
       <c r="L175" t="s">
@@ -20547,7 +20547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>353</v>
       </c>
@@ -20580,10 +20580,10 @@
       <c r="I176" t="s">
         <v>645</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="2">
         <v>-1.9402779999999999</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="2">
         <v>29.873888000000001</v>
       </c>
       <c r="L176" t="s">
@@ -20593,7 +20593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>551</v>
       </c>
@@ -20620,10 +20620,10 @@
       <c r="G177" t="s">
         <v>368</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="2">
         <v>0.18636</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="2">
         <v>6.6130810000000002</v>
       </c>
       <c r="L177" t="s">
@@ -20633,7 +20633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>521</v>
       </c>
@@ -20660,10 +20660,10 @@
       <c r="G178" t="s">
         <v>522</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="2">
         <v>-24.143474000000001</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="2">
         <v>-10.030696000000001</v>
       </c>
       <c r="L178" t="s">
@@ -20673,7 +20673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -20703,10 +20703,10 @@
       <c r="H179" t="s">
         <v>116</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="2">
         <v>17.357821999999999</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="2">
         <v>-62.782997999999999</v>
       </c>
       <c r="L179" t="s">
@@ -20716,7 +20716,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -20746,10 +20746,10 @@
       <c r="H180" t="s">
         <v>360</v>
       </c>
-      <c r="J180">
-        <v>13.809443999999999</v>
-      </c>
-      <c r="K180">
+      <c r="J180" s="2">
+        <v>13.909444000000001</v>
+      </c>
+      <c r="K180" s="2">
         <v>-60.978892999999999</v>
       </c>
       <c r="L180" t="s">
@@ -20759,7 +20759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>484</v>
       </c>
@@ -20785,17 +20785,17 @@
       <c r="G181" t="s">
         <v>483</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="2">
         <v>18.070799999999998</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="2">
         <v>-63.0501</v>
       </c>
       <c r="M181">
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>491</v>
       </c>
@@ -20821,10 +20821,10 @@
       <c r="G182" t="s">
         <v>478</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="2">
         <v>46.941935999999998</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="2">
         <v>-56.27111</v>
       </c>
       <c r="L182" t="s">
@@ -20834,7 +20834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -20864,10 +20864,10 @@
       <c r="H183" t="s">
         <v>171</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="2">
         <v>12.984305000000001</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="2">
         <v>-61.287227999999999</v>
       </c>
       <c r="L183" t="s">
@@ -20877,7 +20877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -20907,10 +20907,10 @@
       <c r="H184" t="s">
         <v>365</v>
       </c>
-      <c r="J184">
-        <v>-13.758029000000001</v>
-      </c>
-      <c r="K184">
+      <c r="J184" s="2">
+        <v>-13.759029</v>
+      </c>
+      <c r="K184" s="2">
         <v>-172.10462899999999</v>
       </c>
       <c r="L184" t="s">
@@ -20920,7 +20920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -20946,10 +20946,10 @@
       <c r="G185" t="s">
         <v>367</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="2">
         <v>43.942360000000001</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="2">
         <v>12.457777</v>
       </c>
       <c r="L185" t="s">
@@ -20959,7 +20959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -20989,10 +20989,10 @@
       <c r="I186" t="s">
         <v>646</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="2">
         <v>23.885942</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="2">
         <v>45.079161999999997</v>
       </c>
       <c r="L186" t="s">
@@ -21002,7 +21002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -21032,10 +21032,10 @@
       <c r="H187" t="s">
         <v>635</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="2">
         <v>14.497401</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="2">
         <v>-14.452362000000001</v>
       </c>
       <c r="L187" t="s">
@@ -21045,7 +21045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -21078,10 +21078,10 @@
       <c r="I188" t="s">
         <v>376</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="2">
         <v>44.016520999999997</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="2">
         <v>21.005859000000001</v>
       </c>
       <c r="L188" t="s">
@@ -21091,7 +21091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -21121,10 +21121,10 @@
       <c r="H189" t="s">
         <v>116</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="2">
         <v>-4.6795739999999997</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="2">
         <v>55.491976999999999</v>
       </c>
       <c r="L189" t="s">
@@ -21134,7 +21134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -21161,10 +21161,10 @@
       <c r="G190" t="s">
         <v>380</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="2">
         <v>8.4605549999999994</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="2">
         <v>-11.779889000000001</v>
       </c>
       <c r="L190" t="s">
@@ -21174,7 +21174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -21204,10 +21204,10 @@
       <c r="I191" t="s">
         <v>382</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="2">
         <v>1.3520829999999999</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="2">
         <v>103.819836</v>
       </c>
       <c r="L191" t="s">
@@ -21217,7 +21217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -21243,11 +21243,11 @@
       <c r="G192" t="s">
         <v>384</v>
       </c>
-      <c r="J192">
-        <v>48.668025999999998</v>
-      </c>
-      <c r="K192">
-        <v>19.698024</v>
+      <c r="J192" s="2">
+        <v>48.669026000000002</v>
+      </c>
+      <c r="K192" s="2">
+        <v>19.699024000000001</v>
       </c>
       <c r="L192" t="s">
         <v>383</v>
@@ -21256,7 +21256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -21282,10 +21282,10 @@
       <c r="G193" t="s">
         <v>386</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="2">
         <v>46.151240999999999</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="2">
         <v>14.995463000000001</v>
       </c>
       <c r="L193" t="s">
@@ -21295,7 +21295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -21322,10 +21322,10 @@
       <c r="G194" t="s">
         <v>388</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="2">
         <v>-9.6457099999999993</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="2">
         <v>160.156194</v>
       </c>
       <c r="L194" t="s">
@@ -21335,7 +21335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -21368,10 +21368,10 @@
       <c r="I195" t="s">
         <v>6</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="2">
         <v>5.1521489999999996</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="2">
         <v>46.199615999999999</v>
       </c>
       <c r="L195" t="s">
@@ -21381,7 +21381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -21411,10 +21411,10 @@
       <c r="I196" t="s">
         <v>595</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="2">
         <v>-30.559481999999999</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="2">
         <v>22.937505999999999</v>
       </c>
       <c r="L196" t="s">
@@ -21424,7 +21424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>585</v>
       </c>
@@ -21454,10 +21454,10 @@
       <c r="I197" t="s">
         <v>586</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="2">
         <v>-54.429600000000001</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="8">
         <v>-36.587899999999998</v>
       </c>
       <c r="L197" t="s">
@@ -21467,7 +21467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>234</v>
       </c>
@@ -21494,10 +21494,10 @@
       <c r="I198" t="s">
         <v>235</v>
       </c>
-      <c r="J198">
-        <v>35.807757000000002</v>
-      </c>
-      <c r="K198">
+      <c r="J198" s="2">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="K198" s="2">
         <v>127.76692199999999</v>
       </c>
       <c r="L198" t="s">
@@ -21507,7 +21507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>393</v>
       </c>
@@ -21534,17 +21534,17 @@
       <c r="G199" t="s">
         <v>394</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="2">
         <v>6.8769999999999998</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="2">
         <v>31.306999999999999</v>
       </c>
       <c r="M199">
         <v>80</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>395</v>
       </c>
@@ -21569,10 +21569,10 @@
       <c r="G200" t="s">
         <v>396</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="2">
         <v>40.463667000000001</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="2">
         <v>-3.7492200000000002</v>
       </c>
       <c r="L200" t="s">
@@ -21582,7 +21582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>397</v>
       </c>
@@ -21615,10 +21615,10 @@
       <c r="I201" t="s">
         <v>399</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="2">
         <v>7.8730539999999998</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="2">
         <v>80.771797000000007</v>
       </c>
       <c r="L201" t="s">
@@ -21628,7 +21628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -21655,10 +21655,10 @@
       <c r="G202" t="s">
         <v>401</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="2">
         <v>12.862807</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="2">
         <v>30.217635999999999</v>
       </c>
       <c r="L202" t="s">
@@ -21668,7 +21668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -21701,10 +21701,10 @@
       <c r="I203" t="s">
         <v>404</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="2">
         <v>3.919305</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="2">
         <v>-56.027782999999999</v>
       </c>
       <c r="L203" t="s">
@@ -21714,7 +21714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>503</v>
       </c>
@@ -21742,10 +21742,10 @@
       <c r="H204" t="s">
         <v>504</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="2">
         <v>77.553604000000007</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="2">
         <v>23.670272000000001</v>
       </c>
       <c r="L204" t="s">
@@ -21755,7 +21755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>405</v>
       </c>
@@ -21780,10 +21780,10 @@
       <c r="G205" t="s">
         <v>406</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="2">
         <v>60.128160999999999</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="2">
         <v>18.643501000000001</v>
       </c>
       <c r="L205" t="s">
@@ -21793,7 +21793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -21818,10 +21818,10 @@
       <c r="G206" t="s">
         <v>408</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="2">
         <v>46.818187999999999</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="2">
         <v>8.2275120000000008</v>
       </c>
       <c r="L206" t="s">
@@ -21831,7 +21831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>409</v>
       </c>
@@ -21858,10 +21858,10 @@
       <c r="G207" t="s">
         <v>410</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="2">
         <v>34.802075000000002</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="2">
         <v>38.996814999999998</v>
       </c>
       <c r="L207" t="s">
@@ -21871,7 +21871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>553</v>
       </c>
@@ -21898,10 +21898,10 @@
       <c r="H208" t="s">
         <v>555</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="2">
         <v>23.69781</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="2">
         <v>120.960515</v>
       </c>
       <c r="L208" t="s">
@@ -21911,7 +21911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>411</v>
       </c>
@@ -21941,10 +21941,10 @@
       <c r="I209" t="s">
         <v>413</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="2">
         <v>38.861033999999997</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="2">
         <v>71.276093000000003</v>
       </c>
       <c r="L209" t="s">
@@ -21954,7 +21954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>561</v>
       </c>
@@ -21984,10 +21984,10 @@
       <c r="H210" t="s">
         <v>116</v>
       </c>
-      <c r="J210">
-        <v>-6.3680279999999998</v>
-      </c>
-      <c r="K210">
+      <c r="J210" s="2">
+        <v>-6.3690280000000001</v>
+      </c>
+      <c r="K210" s="2">
         <v>34.888821999999998</v>
       </c>
       <c r="L210" t="s">
@@ -21997,7 +21997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>416</v>
       </c>
@@ -22030,11 +22030,11 @@
       <c r="I211" t="s">
         <v>419</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="2">
         <v>15.870032</v>
       </c>
-      <c r="K211">
-        <v>80.992541000000003</v>
+      <c r="K211" s="2">
+        <v>100.992541</v>
       </c>
       <c r="L211" t="s">
         <v>416</v>
@@ -22043,7 +22043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -22073,10 +22073,10 @@
       <c r="H212" t="s">
         <v>422</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="2">
         <v>8.6195430000000002</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="2">
         <v>0.82478200000000002</v>
       </c>
       <c r="L212" t="s">
@@ -22086,7 +22086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>501</v>
       </c>
@@ -22113,10 +22113,10 @@
       <c r="G213" t="s">
         <v>502</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="2">
         <v>-8.9673630000000006</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="2">
         <v>-171.85588100000001</v>
       </c>
       <c r="L213" t="s">
@@ -22126,7 +22126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>423</v>
       </c>
@@ -22153,10 +22153,10 @@
       <c r="G214" t="s">
         <v>424</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="2">
         <v>-21.178985999999998</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="2">
         <v>-175.19824199999999</v>
       </c>
       <c r="L214" t="s">
@@ -22166,7 +22166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>425</v>
       </c>
@@ -22196,10 +22196,10 @@
       <c r="H215" t="s">
         <v>635</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="2">
         <v>10.691803</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="2">
         <v>-61.222503000000003</v>
       </c>
       <c r="L215" t="s">
@@ -22209,7 +22209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>427</v>
       </c>
@@ -22239,10 +22239,10 @@
       <c r="H216" t="s">
         <v>635</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="2">
         <v>33.886916999999997</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="2">
         <v>9.5374990000000004</v>
       </c>
       <c r="L216" t="s">
@@ -22252,7 +22252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -22281,10 +22281,10 @@
       <c r="I217" t="s">
         <v>431</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="2">
         <v>38.963745000000003</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="2">
         <v>35.243321999999999</v>
       </c>
       <c r="L217" t="s">
@@ -22294,7 +22294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -22324,10 +22324,10 @@
       <c r="I218" t="s">
         <v>434</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="2">
         <v>38.969718999999998</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="2">
         <v>59.556277999999999</v>
       </c>
       <c r="L218" t="s">
@@ -22337,7 +22337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>526</v>
       </c>
@@ -22367,10 +22367,10 @@
       <c r="H219" t="s">
         <v>647</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="2">
         <v>21.694025</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="2">
         <v>-71.797927999999999</v>
       </c>
       <c r="L219" t="s">
@@ -22380,7 +22380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>435</v>
       </c>
@@ -22410,10 +22410,10 @@
       <c r="H220" t="s">
         <v>171</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="2">
         <v>-7.1095350000000002</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="2">
         <v>177.64932999999999</v>
       </c>
       <c r="L220" t="s">
@@ -22423,7 +22423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>538</v>
       </c>
@@ -22449,10 +22449,10 @@
       <c r="G221" t="s">
         <v>539</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="2">
         <v>18.335764999999999</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="2">
         <v>-64.896334999999993</v>
       </c>
       <c r="L221" t="s">
@@ -22462,7 +22462,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>437</v>
       </c>
@@ -22495,11 +22495,11 @@
       <c r="I222" t="s">
         <v>645</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="2">
         <v>1.3733329999999999</v>
       </c>
-      <c r="K222">
-        <v>32.280275000000003</v>
+      <c r="K222" s="2">
+        <v>32.290275000000001</v>
       </c>
       <c r="L222" t="s">
         <v>437</v>
@@ -22508,7 +22508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>439</v>
       </c>
@@ -22538,10 +22538,10 @@
       <c r="I223" t="s">
         <v>572</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="2">
         <v>48.379432999999999</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="2">
         <v>31.165579999999999</v>
       </c>
       <c r="L223" t="s">
@@ -22551,7 +22551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>440</v>
       </c>
@@ -22580,10 +22580,10 @@
       <c r="I224" t="s">
         <v>442</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="2">
         <v>23.424075999999999</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="2">
         <v>53.847817999999997</v>
       </c>
       <c r="L224" t="s">
@@ -22593,7 +22593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>554</v>
       </c>
@@ -22622,10 +22622,10 @@
       <c r="I225" t="s">
         <v>444</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="2">
         <v>55.378050999999999</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="2">
         <v>-3.4359730000000002</v>
       </c>
       <c r="L225" t="s">
@@ -22635,7 +22635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>560</v>
       </c>
@@ -22661,10 +22661,10 @@
       <c r="G226" t="s">
         <v>576</v>
       </c>
-      <c r="J226">
-        <v>37.080240000000003</v>
-      </c>
-      <c r="K226">
+      <c r="J226" s="2">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="K226" s="2">
         <v>-95.712890999999999</v>
       </c>
       <c r="L226" t="s">
@@ -22674,7 +22674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>446</v>
       </c>
@@ -22704,10 +22704,10 @@
       <c r="I227" t="s">
         <v>448</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="2">
         <v>-32.522779</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="2">
         <v>-55.765835000000003</v>
       </c>
       <c r="L227" t="s">
@@ -22717,7 +22717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>449</v>
       </c>
@@ -22750,10 +22750,10 @@
       <c r="I228" t="s">
         <v>451</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="2">
         <v>41.377490999999999</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="2">
         <v>64.585262</v>
       </c>
       <c r="L228" t="s">
@@ -22763,7 +22763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>452</v>
       </c>
@@ -22793,10 +22793,10 @@
       <c r="H229" t="s">
         <v>16</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="2">
         <v>-15.376706</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="2">
         <v>166.959158</v>
       </c>
       <c r="L229" t="s">
@@ -22806,7 +22806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>453</v>
       </c>
@@ -22836,10 +22836,10 @@
       <c r="I230" t="s">
         <v>455</v>
       </c>
-      <c r="J230">
-        <v>41.802916000000003</v>
-      </c>
-      <c r="K230">
+      <c r="J230" s="2">
+        <v>41.902915999999998</v>
+      </c>
+      <c r="K230" s="2">
         <v>12.453389</v>
       </c>
       <c r="L230" t="s">
@@ -22849,7 +22849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -22876,10 +22876,10 @@
       <c r="G231" t="s">
         <v>457</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="2">
         <v>6.4237500000000001</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="2">
         <v>-66.589730000000003</v>
       </c>
       <c r="L231" t="s">
@@ -22889,7 +22889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>458</v>
       </c>
@@ -22919,10 +22919,10 @@
       <c r="H232" t="s">
         <v>460</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="2">
         <v>14.058324000000001</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="2">
         <v>108.277199</v>
       </c>
       <c r="L232" t="s">
@@ -22932,7 +22932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>492</v>
       </c>
@@ -22959,10 +22959,10 @@
       <c r="G233" t="s">
         <v>493</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="2">
         <v>-13.768751999999999</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="2">
         <v>-177.15609699999999</v>
       </c>
       <c r="L233" t="s">
@@ -22972,7 +22972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>461</v>
       </c>
@@ -23002,10 +23002,10 @@
       <c r="I234" t="s">
         <v>590</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="2">
         <v>15.552727000000001</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="2">
         <v>48.516387999999999</v>
       </c>
       <c r="L234" t="s">
@@ -23015,7 +23015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>463</v>
       </c>
@@ -23045,10 +23045,10 @@
       <c r="H235" t="s">
         <v>16</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="2">
         <v>-13.133896999999999</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="2">
         <v>27.849332</v>
       </c>
       <c r="L235" t="s">
@@ -23058,7 +23058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -23088,10 +23088,10 @@
       <c r="H236" t="s">
         <v>116</v>
       </c>
-      <c r="J236" s="11">
+      <c r="J236" s="2">
         <v>-19.015438</v>
       </c>
-      <c r="K236" s="11">
+      <c r="K236" s="2">
         <v>29.154857</v>
       </c>
       <c r="L236" s="11" t="s">
